--- a/csvData/Fuels Data - ModifiedForMatlab.xlsx
+++ b/csvData/Fuels Data - ModifiedForMatlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bckas\Documents\Allen Aircraft Jet Fuel Calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016087C3-D553-48D2-A792-2E4259E274EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D89BFD6-CE55-4B7F-8214-555F507246A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1C0947E8-0CA8-4230-8CB5-B61F36FF35AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="73">
   <si>
     <t>Typical Density vs Temperature for Aircraft Fuels</t>
   </si>
@@ -651,6 +651,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -668,15 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1393,7 +1393,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$441</c:f>
+              <c:f>Sheet1!$D$446</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1428,20 +1428,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$441:$A$444</c:f>
+              <c:f>Sheet1!$A$446:$A$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -1449,20 +1452,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$441:$C$444</c:f>
+              <c:f>Sheet1!$C$446:$C$450</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="General">
                   <c:v>1.53</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -1480,7 +1486,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$449:$D$449</c:f>
+              <c:f>Sheet1!$A$455:$D$455</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1515,20 +1521,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$449:$A$452</c:f>
+              <c:f>Sheet1!$A$455:$A$459</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -1536,20 +1545,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$449:$C$452</c:f>
+              <c:f>Sheet1!$C$455:$C$459</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.95</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
@@ -1567,7 +1579,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$457</c:f>
+              <c:f>Sheet1!$D$464</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1602,20 +1614,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$457:$A$460</c:f>
+              <c:f>Sheet1!$A$464:$A$468</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -1623,20 +1638,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$457:$C$460</c:f>
+              <c:f>Sheet1!$C$464:$C$468</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -1654,7 +1672,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$465</c:f>
+              <c:f>Sheet1!$D$473</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1689,20 +1707,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$465:$A$468</c:f>
+              <c:f>Sheet1!$A$473:$A$477</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -1710,20 +1731,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$465:$C$468</c:f>
+              <c:f>Sheet1!$C$473:$C$477</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="General">
                   <c:v>4.8499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>1.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1952,7 +1976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$473</c:f>
+              <c:f>Sheet1!$D$482</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1987,7 +2011,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$473:$A$476</c:f>
+              <c:f>Sheet1!$A$482:$A$485</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2008,7 +2032,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$473:$C$476</c:f>
+              <c:f>Sheet1!$C$482:$C$485</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2039,7 +2063,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$481</c:f>
+              <c:f>Sheet1!$D$490</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2074,7 +2098,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$481:$A$484</c:f>
+              <c:f>Sheet1!$A$490:$A$493</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2095,7 +2119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$481:$C$484</c:f>
+              <c:f>Sheet1!$C$490:$C$493</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2126,7 +2150,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$489</c:f>
+              <c:f>Sheet1!$D$498</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2161,7 +2185,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$489:$A$492</c:f>
+              <c:f>Sheet1!$A$498:$A$501</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2182,7 +2206,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$489:$C$492</c:f>
+              <c:f>Sheet1!$C$498:$C$501</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2213,7 +2237,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$497</c:f>
+              <c:f>Sheet1!$D$506</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2248,7 +2272,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$497:$A$500</c:f>
+              <c:f>Sheet1!$A$506:$A$509</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2269,7 +2293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$497:$C$500</c:f>
+              <c:f>Sheet1!$C$506:$C$509</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2300,7 +2324,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$505</c:f>
+              <c:f>Sheet1!$D$514</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2335,7 +2359,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$505:$A$508</c:f>
+              <c:f>Sheet1!$A$514:$A$517</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2356,7 +2380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$505:$C$508</c:f>
+              <c:f>Sheet1!$C$514:$C$517</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2387,7 +2411,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$513</c:f>
+              <c:f>Sheet1!$D$522</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2422,7 +2446,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$513:$A$516</c:f>
+              <c:f>Sheet1!$A$522:$A$525</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2443,7 +2467,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$513:$C$516</c:f>
+              <c:f>Sheet1!$C$522:$C$525</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2681,7 +2705,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$521</c:f>
+              <c:f>Sheet1!$D$530</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2716,7 +2740,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$521:$A$524</c:f>
+              <c:f>Sheet1!$A$530:$A$533</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2737,7 +2761,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$521:$C$524</c:f>
+              <c:f>Sheet1!$C$530:$C$533</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2768,7 +2792,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$529</c:f>
+              <c:f>Sheet1!$D$538</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2803,7 +2827,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$529:$A$532</c:f>
+              <c:f>Sheet1!$A$538:$A$541</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2824,7 +2848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$529:$C$532</c:f>
+              <c:f>Sheet1!$C$538:$C$541</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2855,7 +2879,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$537</c:f>
+              <c:f>Sheet1!$D$546</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2890,7 +2914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$537:$A$540</c:f>
+              <c:f>Sheet1!$A$546:$A$549</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2911,7 +2935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$537:$C$540</c:f>
+              <c:f>Sheet1!$C$546:$C$549</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2942,7 +2966,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$545:$D$545</c:f>
+              <c:f>Sheet1!$A$554:$D$554</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2977,7 +3001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$545:$A$548</c:f>
+              <c:f>Sheet1!$A$554:$A$557</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2998,7 +3022,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$545:$C$548</c:f>
+              <c:f>Sheet1!$C$554:$C$557</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3029,7 +3053,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$553</c:f>
+              <c:f>Sheet1!$D$562</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3064,7 +3088,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$553:$A$556</c:f>
+              <c:f>Sheet1!$A$562:$A$565</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3085,7 +3109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$553:$C$556</c:f>
+              <c:f>Sheet1!$C$562:$C$565</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3323,7 +3347,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$561</c:f>
+              <c:f>Sheet1!$D$570</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3358,7 +3382,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$561:$A$565</c:f>
+              <c:f>Sheet1!$A$570:$A$574</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3382,7 +3406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$561:$C$565</c:f>
+              <c:f>Sheet1!$C$570:$C$574</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3416,7 +3440,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$570</c:f>
+              <c:f>Sheet1!$D$579</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3451,7 +3475,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$570:$A$574</c:f>
+              <c:f>Sheet1!$A$579:$A$583</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3475,7 +3499,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$570:$C$574</c:f>
+              <c:f>Sheet1!$C$579:$C$583</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3509,7 +3533,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$579</c:f>
+              <c:f>Sheet1!$D$588</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3544,7 +3568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$579:$A$583</c:f>
+              <c:f>Sheet1!$A$588:$A$592</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3568,7 +3592,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$579:$C$583</c:f>
+              <c:f>Sheet1!$C$588:$C$592</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3810,7 +3834,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$588</c:f>
+              <c:f>Sheet1!$D$597</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3845,7 +3869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$588:$A$592</c:f>
+              <c:f>Sheet1!$A$597:$A$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3869,7 +3893,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$588:$C$592</c:f>
+              <c:f>Sheet1!$C$597:$C$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3903,7 +3927,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$597</c:f>
+              <c:f>Sheet1!$D$606</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3938,7 +3962,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$597:$A$601</c:f>
+              <c:f>Sheet1!$A$606:$A$610</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3962,7 +3986,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$597:$C$601</c:f>
+              <c:f>Sheet1!$C$606:$C$610</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3996,7 +4020,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$606</c:f>
+              <c:f>Sheet1!$D$615</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4031,7 +4055,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$606:$A$610</c:f>
+              <c:f>Sheet1!$A$615:$A$619</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4055,7 +4079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$606:$C$611</c:f>
+              <c:f>Sheet1!$C$615:$C$620</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4327,7 +4351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$615</c:f>
+              <c:f>Sheet1!$D$624</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4362,7 +4386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$615:$A$624</c:f>
+              <c:f>Sheet1!$A$624:$A$633</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4401,7 +4425,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$615:$C$624</c:f>
+              <c:f>Sheet1!$C$624:$C$633</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4657,7 +4681,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$629</c:f>
+              <c:f>Sheet1!$D$638</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4692,7 +4716,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$629:$A$632</c:f>
+              <c:f>Sheet1!$A$638:$A$641</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4713,7 +4737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$629:$C$632</c:f>
+              <c:f>Sheet1!$C$638:$C$641</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4744,7 +4768,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$637</c:f>
+              <c:f>Sheet1!$D$646</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4779,7 +4803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$637:$A$641</c:f>
+              <c:f>Sheet1!$A$646:$A$650</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4803,7 +4827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$637:$C$641</c:f>
+              <c:f>Sheet1!$C$646:$C$650</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4837,7 +4861,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$646</c:f>
+              <c:f>Sheet1!$D$655</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4872,7 +4896,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$646:$A$650</c:f>
+              <c:f>Sheet1!$A$655:$A$659</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4896,7 +4920,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$646:$C$650</c:f>
+              <c:f>Sheet1!$C$655:$C$659</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4930,7 +4954,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$655</c:f>
+              <c:f>Sheet1!$D$664</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4965,7 +4989,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$655:$A$659</c:f>
+              <c:f>Sheet1!$A$664:$A$668</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4989,7 +5013,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$655:$C$659</c:f>
+              <c:f>Sheet1!$C$664:$C$668</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5023,7 +5047,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$664</c:f>
+              <c:f>Sheet1!$D$673</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5058,7 +5082,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$664:$A$668</c:f>
+              <c:f>Sheet1!$A$673:$A$677</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5082,7 +5106,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$664:$C$668</c:f>
+              <c:f>Sheet1!$C$673:$C$677</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5326,7 +5350,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$673</c:f>
+              <c:f>Sheet1!$D$682</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5361,7 +5385,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$673:$A$677</c:f>
+              <c:f>Sheet1!$A$682:$A$686</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5385,7 +5409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$673:$C$677</c:f>
+              <c:f>Sheet1!$C$682:$C$686</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5419,7 +5443,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$682</c:f>
+              <c:f>Sheet1!$D$691</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5454,7 +5478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$682:$A$686</c:f>
+              <c:f>Sheet1!$A$691:$A$695</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5478,7 +5502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$682:$C$686</c:f>
+              <c:f>Sheet1!$C$691:$C$695</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5512,7 +5536,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$691</c:f>
+              <c:f>Sheet1!$D$700</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5547,7 +5571,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$691:$A$695</c:f>
+              <c:f>Sheet1!$A$700:$A$704</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5571,7 +5595,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$691:$C$695</c:f>
+              <c:f>Sheet1!$C$700:$C$704</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5605,7 +5629,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$700</c:f>
+              <c:f>Sheet1!$D$709</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5640,7 +5664,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$700:$A$704</c:f>
+              <c:f>Sheet1!$A$709:$A$713</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5664,7 +5688,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$700:$C$704</c:f>
+              <c:f>Sheet1!$C$709:$C$713</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5698,7 +5722,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$709</c:f>
+              <c:f>Sheet1!$D$718</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5733,7 +5757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$709:$A$713</c:f>
+              <c:f>Sheet1!$A$718:$A$722</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5757,7 +5781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$709:$C$713</c:f>
+              <c:f>Sheet1!$C$718:$C$722</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11288,17 +11312,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$402:$A$404</c:f>
+              <c:f>Sheet1!$A$402:$A$405</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
@@ -11306,17 +11333,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$402:$C$404</c:f>
+              <c:f>Sheet1!$C$402:$C$405</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -11334,7 +11364,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$409</c:f>
+              <c:f>Sheet1!$D$410</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11369,20 +11399,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$409:$A$412</c:f>
+              <c:f>Sheet1!$A$410:$A$414</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
@@ -11390,20 +11423,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$409:$C$412</c:f>
+              <c:f>Sheet1!$C$410:$C$414</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -11421,7 +11457,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$417</c:f>
+              <c:f>Sheet1!$D$419</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11456,20 +11492,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$417:$A$420</c:f>
+              <c:f>Sheet1!$A$419:$A$423</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
@@ -11477,20 +11516,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$417:$C$420</c:f>
+              <c:f>Sheet1!$C$419:$C$423</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -11508,7 +11550,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$425</c:f>
+              <c:f>Sheet1!$D$428</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11543,20 +11585,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$425:$A$428</c:f>
+              <c:f>Sheet1!$A$428:$A$432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
@@ -11564,20 +11609,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$425:$C$428</c:f>
+              <c:f>Sheet1!$C$428:$C$432</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -11595,7 +11643,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$433</c:f>
+              <c:f>Sheet1!$D$437</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11630,20 +11678,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$433:$A$436</c:f>
+              <c:f>Sheet1!$A$437:$A$441</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
@@ -11651,20 +11702,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$433:$C$436</c:f>
+              <c:f>Sheet1!$C$437:$C$441</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>2.95</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.94</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -21622,7 +21676,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21652,13 +21706,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>437</xdr:row>
+      <xdr:row>442</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>557048</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21688,13 +21742,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>155028</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>478</xdr:row>
       <xdr:rowOff>10509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>541282</xdr:colOff>
-      <xdr:row>515</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21724,13 +21778,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>202324</xdr:colOff>
-      <xdr:row>517</xdr:row>
+      <xdr:row>526</xdr:row>
       <xdr:rowOff>26277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520262</xdr:colOff>
-      <xdr:row>555</xdr:row>
+      <xdr:row>564</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21760,13 +21814,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513430</xdr:colOff>
-      <xdr:row>557</xdr:row>
+      <xdr:row>566</xdr:row>
       <xdr:rowOff>90124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>71207</xdr:colOff>
-      <xdr:row>582</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>179464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21796,13 +21850,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>244365</xdr:colOff>
-      <xdr:row>584</xdr:row>
+      <xdr:row>593</xdr:row>
       <xdr:rowOff>73571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>367862</xdr:colOff>
-      <xdr:row>609</xdr:row>
+      <xdr:row>618</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21832,13 +21886,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>244364</xdr:colOff>
-      <xdr:row>611</xdr:row>
+      <xdr:row>620</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>335279</xdr:colOff>
-      <xdr:row>623</xdr:row>
+      <xdr:row>632</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21868,13 +21922,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>186558</xdr:colOff>
-      <xdr:row>625</xdr:row>
+      <xdr:row>634</xdr:row>
       <xdr:rowOff>36786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>147143</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>676</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21904,13 +21958,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>149772</xdr:colOff>
-      <xdr:row>669</xdr:row>
+      <xdr:row>678</xdr:row>
       <xdr:rowOff>63062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>551793</xdr:colOff>
-      <xdr:row>712</xdr:row>
+      <xdr:row>721</xdr:row>
       <xdr:rowOff>136634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22256,10 +22310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D549441-745C-4BBD-BB88-C97BCF5A789C}">
-  <dimension ref="A1:E713"/>
+  <dimension ref="A1:E722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F563" sqref="F563"/>
+    <sheetView tabSelected="1" topLeftCell="A432" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -22273,7 +22327,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1">
       <c r="A1" s="23">
-        <v>132456</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" thickBot="1">
@@ -22368,7 +22422,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.4" thickBot="1">
       <c r="A9" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -22466,7 +22520,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.4" thickBot="1">
       <c r="A17" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -22564,7 +22618,7 @@
     </row>
     <row r="25" spans="1:4" ht="14.4" thickBot="1">
       <c r="A25" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -22662,7 +22716,7 @@
     </row>
     <row r="33" spans="1:4" ht="14.4" thickBot="1">
       <c r="A33" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -22760,7 +22814,7 @@
     </row>
     <row r="41" spans="1:4" ht="14.4" thickBot="1">
       <c r="A41" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -22858,7 +22912,7 @@
     </row>
     <row r="49" spans="1:4" ht="14.4" thickBot="1">
       <c r="A49" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -22956,7 +23010,7 @@
     </row>
     <row r="57" spans="1:4" ht="14.4" thickBot="1">
       <c r="A57" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -23054,7 +23108,7 @@
     </row>
     <row r="65" spans="1:4" ht="14.4" thickBot="1">
       <c r="A65" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -23152,7 +23206,7 @@
     </row>
     <row r="73" spans="1:4" ht="14.4" thickBot="1">
       <c r="A73" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -23250,7 +23304,7 @@
     </row>
     <row r="81" spans="1:4" ht="14.4" thickBot="1">
       <c r="A81" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -23363,7 +23417,7 @@
     </row>
     <row r="90" spans="1:4" ht="14.4" thickBot="1">
       <c r="A90" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -23476,7 +23530,7 @@
     </row>
     <row r="99" spans="1:4" ht="14.4" thickBot="1">
       <c r="A99" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -23589,7 +23643,7 @@
     </row>
     <row r="108" spans="1:4" ht="14.4" thickBot="1">
       <c r="A108" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -23702,7 +23756,7 @@
     </row>
     <row r="117" spans="1:4" ht="14.4" thickBot="1">
       <c r="A117" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -23815,7 +23869,7 @@
     </row>
     <row r="126" spans="1:4" ht="14.4" thickBot="1">
       <c r="A126" s="28">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -23928,7 +23982,7 @@
     </row>
     <row r="135" spans="1:4" ht="14.4" thickBot="1">
       <c r="A135" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -24041,19 +24095,19 @@
     </row>
     <row r="144" spans="1:4" ht="14.4" thickBot="1">
       <c r="A144" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
     </row>
     <row r="145" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="84"/>
-      <c r="C145" s="84"/>
-      <c r="D145" s="85"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="87"/>
+      <c r="D145" s="88"/>
     </row>
     <row r="146" spans="1:4" ht="14.4" thickBot="1">
       <c r="A146" s="16" t="s">
@@ -24154,19 +24208,19 @@
     </row>
     <row r="153" spans="1:4" ht="14.4" thickBot="1">
       <c r="A153" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
     </row>
     <row r="154" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A154" s="83" t="s">
+      <c r="A154" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="84"/>
-      <c r="C154" s="84"/>
-      <c r="D154" s="85"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="88"/>
     </row>
     <row r="155" spans="1:4" ht="14.4" thickBot="1">
       <c r="A155" s="16" t="s">
@@ -24267,19 +24321,19 @@
     </row>
     <row r="162" spans="1:4" ht="14.4" thickBot="1">
       <c r="A162" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
     </row>
     <row r="163" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A163" s="83" t="s">
+      <c r="A163" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B163" s="84"/>
-      <c r="C163" s="84"/>
-      <c r="D163" s="85"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="87"/>
+      <c r="D163" s="88"/>
     </row>
     <row r="164" spans="1:4" ht="14.4" thickBot="1">
       <c r="A164" s="9" t="s">
@@ -24380,19 +24434,19 @@
     </row>
     <row r="171" spans="1:4" ht="14.4" thickBot="1">
       <c r="A171" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
     </row>
     <row r="172" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A172" s="83" t="s">
+      <c r="A172" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B172" s="84"/>
-      <c r="C172" s="84"/>
-      <c r="D172" s="85"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="87"/>
+      <c r="D172" s="88"/>
     </row>
     <row r="173" spans="1:4" ht="14.4" thickBot="1">
       <c r="A173" s="9" t="s">
@@ -24493,33 +24547,27 @@
     </row>
     <row r="180" spans="1:4" ht="14.4" thickBot="1">
       <c r="A180" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
     </row>
     <row r="181" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A181" s="83" t="s">
+      <c r="A181" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B181" s="84"/>
-      <c r="C181" s="84"/>
-      <c r="D181" s="85"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="87"/>
+      <c r="D181" s="88"/>
     </row>
     <row r="182" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A182" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A182" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="22"/>
     </row>
     <row r="183" spans="1:4" ht="14.4" thickBot="1">
       <c r="A183" s="27" t="s">
@@ -24612,7 +24660,7 @@
     </row>
     <row r="189" spans="1:4" ht="14.4" thickBot="1">
       <c r="A189" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
@@ -24725,7 +24773,7 @@
     </row>
     <row r="198" spans="1:4" ht="14.4" thickBot="1">
       <c r="A198" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B198" s="15"/>
       <c r="C198" s="33"/>
@@ -24838,7 +24886,7 @@
     </row>
     <row r="207" spans="1:4" ht="14.4" thickBot="1">
       <c r="A207" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B207" s="15"/>
       <c r="C207" s="33"/>
@@ -24951,7 +24999,7 @@
     </row>
     <row r="216" spans="1:4" ht="14.4" thickBot="1">
       <c r="A216" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
@@ -25064,7 +25112,7 @@
     </row>
     <row r="225" spans="1:4" ht="14.4" thickBot="1">
       <c r="A225" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -25177,7 +25225,7 @@
     </row>
     <row r="234" spans="1:4" ht="14.4" thickBot="1">
       <c r="A234" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -25290,7 +25338,7 @@
     </row>
     <row r="243" spans="1:4" ht="14.4" thickBot="1">
       <c r="A243" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -25403,7 +25451,7 @@
     </row>
     <row r="252" spans="1:4" ht="14.4" thickBot="1">
       <c r="A252" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -25516,7 +25564,7 @@
     </row>
     <row r="261" spans="1:4" ht="14.4" thickBot="1">
       <c r="A261" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -25629,7 +25677,7 @@
     </row>
     <row r="270" spans="1:4" ht="14.4" thickBot="1">
       <c r="A270" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
@@ -25742,7 +25790,7 @@
     </row>
     <row r="279" spans="1:4" ht="14.4" thickBot="1">
       <c r="A279" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B279" s="15"/>
       <c r="C279" s="15"/>
@@ -25855,7 +25903,7 @@
     </row>
     <row r="288" spans="1:4" ht="14.4" thickBot="1">
       <c r="A288" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B288" s="15"/>
       <c r="C288" s="15"/>
@@ -25968,19 +26016,19 @@
     </row>
     <row r="297" spans="1:4" ht="14.4" thickBot="1">
       <c r="A297" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
     </row>
     <row r="298" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A298" s="86" t="s">
+      <c r="A298" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B298" s="87"/>
-      <c r="C298" s="87"/>
-      <c r="D298" s="88"/>
+      <c r="B298" s="81"/>
+      <c r="C298" s="81"/>
+      <c r="D298" s="82"/>
     </row>
     <row r="299" spans="1:4" ht="14.4" thickBot="1">
       <c r="A299" s="16" t="s">
@@ -26081,19 +26129,19 @@
     </row>
     <row r="306" spans="1:4" ht="14.4" thickBot="1">
       <c r="A306" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
     </row>
     <row r="307" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A307" s="80" t="s">
+      <c r="A307" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B307" s="81"/>
-      <c r="C307" s="81"/>
-      <c r="D307" s="82"/>
+      <c r="B307" s="84"/>
+      <c r="C307" s="84"/>
+      <c r="D307" s="85"/>
     </row>
     <row r="308" spans="1:4" ht="14.4" thickBot="1">
       <c r="A308" s="9" t="s">
@@ -26194,19 +26242,19 @@
     </row>
     <row r="315" spans="1:4" ht="14.4" thickBot="1">
       <c r="A315" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
     </row>
     <row r="316" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A316" s="80" t="s">
+      <c r="A316" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B316" s="81"/>
-      <c r="C316" s="81"/>
-      <c r="D316" s="82"/>
+      <c r="B316" s="84"/>
+      <c r="C316" s="84"/>
+      <c r="D316" s="85"/>
     </row>
     <row r="317" spans="1:4" ht="14.4" thickBot="1">
       <c r="A317" s="16" t="s">
@@ -26307,19 +26355,19 @@
     </row>
     <row r="324" spans="1:4" ht="14.4" thickBot="1">
       <c r="A324" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
     </row>
     <row r="325" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A325" s="80" t="s">
+      <c r="A325" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B325" s="81"/>
-      <c r="C325" s="81"/>
-      <c r="D325" s="82"/>
+      <c r="B325" s="84"/>
+      <c r="C325" s="84"/>
+      <c r="D325" s="85"/>
     </row>
     <row r="326" spans="1:4" ht="14.4" thickBot="1">
       <c r="A326" s="16" t="s">
@@ -26420,19 +26468,19 @@
     </row>
     <row r="333" spans="1:4" ht="14.4" thickBot="1">
       <c r="A333" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
     </row>
     <row r="334" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A334" s="80" t="s">
+      <c r="A334" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B334" s="81"/>
-      <c r="C334" s="81"/>
-      <c r="D334" s="82"/>
+      <c r="B334" s="84"/>
+      <c r="C334" s="84"/>
+      <c r="D334" s="85"/>
     </row>
     <row r="335" spans="1:4" ht="14.4" thickBot="1">
       <c r="A335" s="9" t="s">
@@ -26533,7 +26581,7 @@
     </row>
     <row r="342" spans="1:4" ht="14.4" thickBot="1">
       <c r="A342" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="14.4" thickBot="1">
@@ -26628,7 +26676,7 @@
     </row>
     <row r="350" spans="1:4" ht="14.4" thickBot="1">
       <c r="A350" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="20"/>
@@ -26726,7 +26774,7 @@
     </row>
     <row r="358" spans="1:4" ht="14.4" thickBot="1">
       <c r="A358" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="20"/>
@@ -26824,7 +26872,7 @@
     </row>
     <row r="366" spans="1:4" ht="14.4" thickBot="1">
       <c r="A366" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="20"/>
@@ -26922,7 +26970,7 @@
     </row>
     <row r="374" spans="1:4" ht="14.4" thickBot="1">
       <c r="A374" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="20"/>
@@ -27020,7 +27068,7 @@
     </row>
     <row r="382" spans="1:4" ht="14.4" thickBot="1">
       <c r="A382" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="20"/>
@@ -27118,7 +27166,7 @@
     </row>
     <row r="390" spans="1:4" ht="14.4" thickBot="1">
       <c r="A390" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="20"/>
@@ -27216,7 +27264,7 @@
     </row>
     <row r="398" spans="1:4" ht="14.4" thickBot="1">
       <c r="A398" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B398" s="15"/>
       <c r="C398" s="15"/>
@@ -27269,786 +27317,802 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="28">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="B403" s="15">
-        <f t="shared" ref="B403:B404" si="42">A403*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C403" s="39">
-        <v>0.8</v>
+        <f t="shared" ref="B403:B405" si="42">A403*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C403" s="15">
+        <v>1.2</v>
       </c>
       <c r="D403" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A404" s="29">
+    <row r="404" spans="1:4">
+      <c r="A404" s="28">
+        <v>0</v>
+      </c>
+      <c r="B404" s="15">
+        <f t="shared" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="C404" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="D404" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A405" s="29">
         <v>72</v>
       </c>
-      <c r="B404" s="17">
+      <c r="B405" s="17">
         <f t="shared" si="42"/>
         <v>161.6</v>
       </c>
-      <c r="C404" s="40">
+      <c r="C405" s="40">
         <v>0.4</v>
       </c>
-      <c r="D404" s="18" t="s">
+      <c r="D405" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A405" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B405" s="15"/>
-      <c r="C405" s="15"/>
-      <c r="D405" s="15"/>
-    </row>
     <row r="406" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A406" s="19" t="s">
+      <c r="A406" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B406" s="15"/>
+      <c r="C406" s="15"/>
+      <c r="D406" s="15"/>
+    </row>
+    <row r="407" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A407" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B406" s="11"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="12"/>
-    </row>
-    <row r="407" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A407" s="18" t="s">
+      <c r="B407" s="11"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="12"/>
+    </row>
+    <row r="408" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A408" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B407" s="21"/>
-      <c r="C407" s="21"/>
-      <c r="D407" s="22"/>
-    </row>
-    <row r="408" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A408" s="26" t="s">
+      <c r="B408" s="21"/>
+      <c r="C408" s="21"/>
+      <c r="D408" s="22"/>
+    </row>
+    <row r="409" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A409" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C409" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="27">
+    <row r="410" spans="1:4">
+      <c r="A410" s="27">
         <v>-50</v>
       </c>
-      <c r="B409" s="14">
-        <f>A409*(9/5)+32</f>
+      <c r="B410" s="14">
+        <f>A410*(9/5)+32</f>
         <v>-58</v>
       </c>
-      <c r="C409" s="41">
+      <c r="C410" s="41">
         <v>3.4</v>
       </c>
-      <c r="D409" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="28">
-        <v>0</v>
-      </c>
-      <c r="B410" s="15">
-        <f t="shared" ref="B410:B412" si="43">A410*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C410" s="15">
-        <v>1.22</v>
-      </c>
-      <c r="D410" s="16" t="s">
+      <c r="D410" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="28">
-        <v>70</v>
+        <v>-30</v>
       </c>
       <c r="B411" s="15">
-        <f t="shared" si="43"/>
-        <v>158</v>
-      </c>
-      <c r="C411" s="15">
-        <v>0.56000000000000005</v>
+        <f t="shared" ref="B411" si="43">A411*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C411" s="39">
+        <v>2.1</v>
       </c>
       <c r="D411" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A412" s="29">
-        <v>104</v>
-      </c>
-      <c r="B412" s="17">
-        <f t="shared" si="43"/>
-        <v>219.20000000000002</v>
-      </c>
-      <c r="C412" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="D412" s="18" t="s">
+    <row r="412" spans="1:4">
+      <c r="A412" s="28">
+        <v>0</v>
+      </c>
+      <c r="B412" s="15">
+        <f t="shared" ref="B412:B414" si="44">A412*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C412" s="15">
+        <v>1.22</v>
+      </c>
+      <c r="D412" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A413" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B413" s="15"/>
-      <c r="C413" s="15"/>
-      <c r="D413" s="15"/>
-    </row>
-    <row r="414" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A414" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B414" s="11"/>
-      <c r="C414" s="11"/>
-      <c r="D414" s="12"/>
-    </row>
-    <row r="415" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A415" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B415" s="21"/>
-      <c r="C415" s="21"/>
-      <c r="D415" s="22"/>
-    </row>
-    <row r="416" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A416" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="27">
-        <v>-50</v>
-      </c>
-      <c r="B417" s="14">
-        <f>A417*(9/5)+32</f>
-        <v>-58</v>
-      </c>
-      <c r="C417" s="41">
-        <v>9</v>
-      </c>
-      <c r="D417" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="28">
-        <v>0</v>
-      </c>
-      <c r="B418" s="15">
-        <f t="shared" ref="B418:B420" si="44">A418*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C418" s="39">
-        <v>1.9</v>
-      </c>
-      <c r="D418" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="28">
+    <row r="413" spans="1:4">
+      <c r="A413" s="28">
         <v>70</v>
       </c>
-      <c r="B419" s="15">
+      <c r="B413" s="15">
         <f t="shared" si="44"/>
         <v>158</v>
       </c>
-      <c r="C419" s="39">
-        <v>0.7</v>
-      </c>
-      <c r="D419" s="16" t="s">
+      <c r="C413" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D413" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A414" s="29">
+        <v>104</v>
+      </c>
+      <c r="B414" s="17">
+        <f t="shared" si="44"/>
+        <v>219.20000000000002</v>
+      </c>
+      <c r="C414" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="D414" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A415" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B415" s="15"/>
+      <c r="C415" s="15"/>
+      <c r="D415" s="15"/>
+    </row>
+    <row r="416" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A416" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B416" s="11"/>
+      <c r="C416" s="11"/>
+      <c r="D416" s="12"/>
+    </row>
+    <row r="417" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A417" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A420" s="29">
-        <v>130</v>
-      </c>
-      <c r="B420" s="17">
-        <f t="shared" si="44"/>
-        <v>266</v>
-      </c>
-      <c r="C420" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="D420" s="18" t="s">
+      <c r="B417" s="21"/>
+      <c r="C417" s="21"/>
+      <c r="D417" s="22"/>
+    </row>
+    <row r="418" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A418" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="27">
+        <v>-50</v>
+      </c>
+      <c r="B419" s="14">
+        <f>A419*(9/5)+32</f>
+        <v>-58</v>
+      </c>
+      <c r="C419" s="41">
+        <v>9</v>
+      </c>
+      <c r="D419" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A421" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B421" s="15"/>
-      <c r="C421" s="15"/>
-      <c r="D421" s="15"/>
-    </row>
-    <row r="422" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A422" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B422" s="11"/>
-      <c r="C422" s="11"/>
-      <c r="D422" s="12"/>
-    </row>
-    <row r="423" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A423" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B423" s="21"/>
-      <c r="C423" s="21"/>
-      <c r="D423" s="22"/>
-    </row>
-    <row r="424" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A424" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="27">
-        <v>-50</v>
-      </c>
-      <c r="B425" s="14">
-        <f>A425*(9/5)+32</f>
-        <v>-58</v>
-      </c>
-      <c r="C425" s="41">
-        <v>16</v>
-      </c>
-      <c r="D425" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="28">
+    <row r="420" spans="1:4">
+      <c r="A420" s="28">
+        <v>-30</v>
+      </c>
+      <c r="B420" s="15">
+        <f t="shared" ref="B420" si="45">A420*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C420" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="D420" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="28">
         <v>0</v>
       </c>
-      <c r="B426" s="15">
-        <f t="shared" ref="B426:B428" si="45">A426*(9/5)+32</f>
+      <c r="B421" s="15">
+        <f t="shared" ref="B421:B423" si="46">A421*(9/5)+32</f>
         <v>32</v>
       </c>
-      <c r="C426" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="D426" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="28">
+      <c r="C421" s="39">
+        <v>1.9</v>
+      </c>
+      <c r="D421" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="28">
         <v>70</v>
       </c>
-      <c r="B427" s="15">
-        <f t="shared" si="45"/>
-        <v>158</v>
-      </c>
-      <c r="C427" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="D427" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A428" s="29">
-        <v>144</v>
-      </c>
-      <c r="B428" s="17">
-        <f t="shared" si="45"/>
-        <v>291.2</v>
-      </c>
-      <c r="C428" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="D428" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A429" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B429" s="15"/>
-      <c r="C429" s="15"/>
-      <c r="D429" s="15"/>
-    </row>
-    <row r="430" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A430" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B430" s="11"/>
-      <c r="C430" s="11"/>
-      <c r="D430" s="12"/>
-    </row>
-    <row r="431" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A431" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B431" s="21"/>
-      <c r="C431" s="21"/>
-      <c r="D431" s="22"/>
-    </row>
-    <row r="432" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A432" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="27">
-        <v>-50</v>
-      </c>
-      <c r="B433" s="14">
-        <f>A433*(9/5)+32</f>
-        <v>-58</v>
-      </c>
-      <c r="C433" s="41">
-        <v>19</v>
-      </c>
-      <c r="D433" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="28">
-        <v>0</v>
-      </c>
-      <c r="B434" s="15">
-        <f t="shared" ref="B434:B436" si="46">A434*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C434" s="15">
-        <v>2.95</v>
-      </c>
-      <c r="D434" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="28">
-        <v>70</v>
-      </c>
-      <c r="B435" s="15">
+      <c r="B422" s="15">
         <f t="shared" si="46"/>
         <v>158</v>
       </c>
-      <c r="C435" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="D435" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A436" s="29">
-        <v>156</v>
-      </c>
-      <c r="B436" s="17">
+      <c r="C422" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="D422" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A423" s="29">
+        <v>130</v>
+      </c>
+      <c r="B423" s="17">
         <f t="shared" si="46"/>
-        <v>312.8</v>
-      </c>
-      <c r="C436" s="40">
+        <v>266</v>
+      </c>
+      <c r="C423" s="40">
         <v>0.4</v>
       </c>
-      <c r="D436" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A437" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B437" s="20"/>
-      <c r="C437" s="20"/>
-      <c r="D437" s="20"/>
-    </row>
-    <row r="438" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A438" s="6" t="s">
+      <c r="D423" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A424" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B424" s="15"/>
+      <c r="C424" s="15"/>
+      <c r="D424" s="15"/>
+    </row>
+    <row r="425" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A425" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B438" s="7"/>
-      <c r="C438" s="7"/>
-      <c r="D438" s="8"/>
-    </row>
-    <row r="439" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A439" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B439" s="21"/>
-      <c r="C439" s="21"/>
-      <c r="D439" s="22"/>
-    </row>
-    <row r="440" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A440" s="26" t="s">
+      <c r="B425" s="11"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="12"/>
+    </row>
+    <row r="426" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A426" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B426" s="21"/>
+      <c r="C426" s="21"/>
+      <c r="D426" s="22"/>
+    </row>
+    <row r="427" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A427" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B427" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="C427" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D440" s="1" t="s">
+      <c r="D427" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="27">
+    <row r="428" spans="1:4">
+      <c r="A428" s="27">
         <v>-50</v>
       </c>
-      <c r="B441" s="14">
-        <f>A441*(9/5)+32</f>
+      <c r="B428" s="14">
+        <f>A428*(9/5)+32</f>
         <v>-58</v>
       </c>
-      <c r="C441" s="41">
-        <v>36</v>
-      </c>
-      <c r="D441" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="28">
+      <c r="C428" s="41">
+        <v>16</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="28">
+        <v>-30</v>
+      </c>
+      <c r="B429" s="15">
+        <f t="shared" ref="B429" si="47">A429*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C429" s="39">
+        <v>6.3</v>
+      </c>
+      <c r="D429" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="28">
         <v>0</v>
       </c>
-      <c r="B442" s="15">
-        <f t="shared" ref="B442:B444" si="47">A442*(9/5)+32</f>
+      <c r="B430" s="15">
+        <f t="shared" ref="B430:B432" si="48">A430*(9/5)+32</f>
         <v>32</v>
       </c>
-      <c r="C442" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="D442" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="28">
+      <c r="C430" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="D430" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="28">
         <v>70</v>
       </c>
-      <c r="B443" s="15">
-        <f t="shared" si="47"/>
-        <v>158</v>
-      </c>
-      <c r="C443" s="15">
-        <v>1.53</v>
-      </c>
-      <c r="D443" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A444" s="29">
-        <v>180</v>
-      </c>
-      <c r="B444" s="17">
-        <f t="shared" si="47"/>
-        <v>356</v>
-      </c>
-      <c r="C444" s="40">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D444" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A445" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B445" s="20"/>
-      <c r="C445" s="20"/>
-      <c r="D445" s="20"/>
-    </row>
-    <row r="446" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A446" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B446" s="11"/>
-      <c r="C446" s="11"/>
-      <c r="D446" s="12"/>
-    </row>
-    <row r="447" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A447" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B447" s="21"/>
-      <c r="C447" s="21"/>
-      <c r="D447" s="22"/>
-    </row>
-    <row r="448" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A448" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="27">
-        <v>-50</v>
-      </c>
-      <c r="B449" s="14">
-        <f>A449*(9/5)+32</f>
-        <v>-58</v>
-      </c>
-      <c r="C449" s="41">
-        <v>90</v>
-      </c>
-      <c r="D449" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="28">
-        <v>0</v>
-      </c>
-      <c r="B450" s="15">
-        <f t="shared" ref="B450:B452" si="48">A450*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C450" s="39">
-        <v>7</v>
-      </c>
-      <c r="D450" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="28">
-        <v>70</v>
-      </c>
-      <c r="B451" s="15">
+      <c r="B431" s="15">
         <f t="shared" si="48"/>
         <v>158</v>
       </c>
-      <c r="C451" s="39">
-        <v>1.95</v>
-      </c>
-      <c r="D451" s="16" t="s">
+      <c r="C431" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="D431" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A432" s="29">
+        <v>144</v>
+      </c>
+      <c r="B432" s="17">
+        <f t="shared" si="48"/>
+        <v>291.2</v>
+      </c>
+      <c r="C432" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="D432" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A433" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B433" s="15"/>
+      <c r="C433" s="15"/>
+      <c r="D433" s="15"/>
+    </row>
+    <row r="434" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A434" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B434" s="11"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="12"/>
+    </row>
+    <row r="435" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A435" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B435" s="21"/>
+      <c r="C435" s="21"/>
+      <c r="D435" s="22"/>
+    </row>
+    <row r="436" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A436" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A437" s="27">
+        <v>-50</v>
+      </c>
+      <c r="B437" s="14">
+        <f>A437*(9/5)+32</f>
+        <v>-58</v>
+      </c>
+      <c r="C437" s="41">
+        <v>19</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="28">
+        <v>-30</v>
+      </c>
+      <c r="B438" s="15">
+        <f t="shared" ref="B438" si="49">A438*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C438" s="39">
+        <v>7</v>
+      </c>
+      <c r="D438" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="28">
+        <v>0</v>
+      </c>
+      <c r="B439" s="15">
+        <f t="shared" ref="B439:B441" si="50">A439*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C439" s="15">
+        <v>2.95</v>
+      </c>
+      <c r="D439" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="28">
+        <v>70</v>
+      </c>
+      <c r="B440" s="15">
+        <f t="shared" si="50"/>
+        <v>158</v>
+      </c>
+      <c r="C440" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="D440" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A441" s="29">
+        <v>156</v>
+      </c>
+      <c r="B441" s="17">
+        <f t="shared" si="50"/>
+        <v>312.8</v>
+      </c>
+      <c r="C441" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="D441" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A442" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="20"/>
+      <c r="D442" s="20"/>
+    </row>
+    <row r="443" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A443" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B443" s="7"/>
+      <c r="C443" s="7"/>
+      <c r="D443" s="8"/>
+    </row>
+    <row r="444" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A444" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B444" s="21"/>
+      <c r="C444" s="21"/>
+      <c r="D444" s="22"/>
+    </row>
+    <row r="445" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A445" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="27">
+        <v>-50</v>
+      </c>
+      <c r="B446" s="14">
+        <f>A446*(9/5)+32</f>
+        <v>-58</v>
+      </c>
+      <c r="C446" s="41">
+        <v>36</v>
+      </c>
+      <c r="D446" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="28">
+        <v>-30</v>
+      </c>
+      <c r="B447" s="15">
+        <f t="shared" ref="B447" si="51">A447*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C447" s="39">
+        <v>14</v>
+      </c>
+      <c r="D447" s="16"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="28">
+        <v>0</v>
+      </c>
+      <c r="B448" s="15">
+        <f t="shared" ref="B448:B450" si="52">A448*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C448" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="D448" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="28">
+        <v>70</v>
+      </c>
+      <c r="B449" s="15">
+        <f t="shared" si="52"/>
+        <v>158</v>
+      </c>
+      <c r="C449" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="D449" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A450" s="29">
+        <v>180</v>
+      </c>
+      <c r="B450" s="17">
+        <f t="shared" si="52"/>
+        <v>356</v>
+      </c>
+      <c r="C450" s="40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D450" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A451" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="20"/>
+      <c r="D451" s="20"/>
+    </row>
+    <row r="452" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A452" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B452" s="11"/>
+      <c r="C452" s="11"/>
+      <c r="D452" s="12"/>
+    </row>
+    <row r="453" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A453" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A452" s="29">
-        <v>180</v>
-      </c>
-      <c r="B452" s="17">
-        <f t="shared" si="48"/>
-        <v>356</v>
-      </c>
-      <c r="C452" s="39">
-        <v>0.68</v>
-      </c>
-      <c r="D452" s="16" t="s">
+      <c r="B453" s="21"/>
+      <c r="C453" s="21"/>
+      <c r="D453" s="22"/>
+    </row>
+    <row r="454" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A454" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="27">
+        <v>-50</v>
+      </c>
+      <c r="B455" s="14">
+        <f>A455*(9/5)+32</f>
+        <v>-58</v>
+      </c>
+      <c r="C455" s="41">
+        <v>90</v>
+      </c>
+      <c r="D455" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A453" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B453" s="20"/>
-      <c r="C453" s="20"/>
-      <c r="D453" s="20"/>
-    </row>
-    <row r="454" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A454" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B454" s="11"/>
-      <c r="C454" s="11"/>
-      <c r="D454" s="12"/>
-    </row>
-    <row r="455" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A455" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B455" s="21"/>
-      <c r="C455" s="21"/>
-      <c r="D455" s="22"/>
-    </row>
-    <row r="456" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A456" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="456" spans="1:4">
+      <c r="A456" s="28">
+        <v>-30</v>
+      </c>
+      <c r="B456" s="15">
+        <f t="shared" ref="B456" si="53">A456*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C456" s="39">
+        <v>24</v>
+      </c>
+      <c r="D456" s="16"/>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="27">
-        <v>-50</v>
-      </c>
-      <c r="B457" s="14">
-        <f>A457*(9/5)+32</f>
-        <v>-58</v>
-      </c>
-      <c r="C457" s="41">
-        <v>500</v>
-      </c>
-      <c r="D457" s="9" t="s">
-        <v>12</v>
+      <c r="A457" s="28">
+        <v>0</v>
+      </c>
+      <c r="B457" s="15">
+        <f t="shared" ref="B457:B459" si="54">A457*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C457" s="39">
+        <v>7</v>
+      </c>
+      <c r="D457" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B458" s="15">
-        <f t="shared" ref="B458:B460" si="49">A458*(9/5)+32</f>
-        <v>32</v>
+        <f t="shared" si="54"/>
+        <v>158</v>
       </c>
       <c r="C458" s="39">
-        <v>18.5</v>
+        <v>1.95</v>
       </c>
       <c r="D458" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A459" s="29">
+        <v>180</v>
+      </c>
+      <c r="B459" s="17">
+        <f t="shared" si="54"/>
+        <v>356</v>
+      </c>
+      <c r="C459" s="39">
+        <v>0.68</v>
+      </c>
+      <c r="D459" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A460" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="20"/>
+      <c r="D460" s="20"/>
+    </row>
+    <row r="461" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A461" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B461" s="11"/>
+      <c r="C461" s="11"/>
+      <c r="D461" s="12"/>
+    </row>
+    <row r="462" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A462" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="28">
-        <v>70</v>
-      </c>
-      <c r="B459" s="15">
-        <f t="shared" si="49"/>
-        <v>158</v>
-      </c>
-      <c r="C459" s="39">
-        <v>3.3</v>
-      </c>
-      <c r="D459" s="16" t="s">
+      <c r="B462" s="21"/>
+      <c r="C462" s="21"/>
+      <c r="D462" s="22"/>
+    </row>
+    <row r="463" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A463" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="27">
+        <v>-50</v>
+      </c>
+      <c r="B464" s="14">
+        <f>A464*(9/5)+32</f>
+        <v>-58</v>
+      </c>
+      <c r="C464" s="41">
+        <v>500</v>
+      </c>
+      <c r="D464" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A460" s="29">
-        <v>180</v>
-      </c>
-      <c r="B460" s="17">
-        <f t="shared" si="49"/>
-        <v>356</v>
-      </c>
-      <c r="C460" s="39">
-        <v>0.95</v>
-      </c>
-      <c r="D460" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A461" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B461" s="20"/>
-      <c r="C461" s="20"/>
-      <c r="D461" s="20"/>
-    </row>
-    <row r="462" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A462" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B462" s="11"/>
-      <c r="C462" s="11"/>
-      <c r="D462" s="12"/>
-    </row>
-    <row r="463" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A463" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B463" s="21"/>
-      <c r="C463" s="21"/>
-      <c r="D463" s="22"/>
-    </row>
-    <row r="464" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A464" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="27">
-        <v>-50</v>
-      </c>
-      <c r="B465" s="14">
-        <f>A465*(9/5)+32</f>
-        <v>-58</v>
-      </c>
-      <c r="C465" s="41">
-        <v>1000</v>
-      </c>
-      <c r="D465" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A465" s="28">
+        <v>-30</v>
+      </c>
+      <c r="B465" s="15">
+        <f t="shared" ref="B465" si="55">A465*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C465" s="39">
+        <v>100</v>
+      </c>
+      <c r="D465" s="16"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="28">
         <v>0</v>
       </c>
       <c r="B466" s="15">
-        <f t="shared" ref="B466:B468" si="50">A466*(9/5)+32</f>
+        <f t="shared" ref="B466:B468" si="56">A466*(9/5)+32</f>
         <v>32</v>
       </c>
-      <c r="C466" s="15">
-        <v>33</v>
+      <c r="C466" s="39">
+        <v>18.5</v>
       </c>
       <c r="D466" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -28056,14 +28120,14 @@
         <v>70</v>
       </c>
       <c r="B467" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>158</v>
       </c>
-      <c r="C467" s="15">
-        <v>4.8499999999999996</v>
+      <c r="C467" s="39">
+        <v>3.3</v>
       </c>
       <c r="D467" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="14.4" thickBot="1">
@@ -28071,41 +28135,41 @@
         <v>180</v>
       </c>
       <c r="B468" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>356</v>
       </c>
-      <c r="C468" s="40">
-        <v>1.3</v>
-      </c>
-      <c r="D468" s="18" t="s">
-        <v>11</v>
+      <c r="C468" s="39">
+        <v>0.95</v>
+      </c>
+      <c r="D468" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="14.4" thickBot="1">
       <c r="A469" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
     </row>
     <row r="470" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A470" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="B470" s="87"/>
-      <c r="C470" s="87"/>
-      <c r="D470" s="88"/>
+      <c r="A470" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B470" s="11"/>
+      <c r="C470" s="11"/>
+      <c r="D470" s="12"/>
     </row>
     <row r="471" spans="1:4" ht="14.4" thickBot="1">
       <c r="A471" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B471" s="21"/>
       <c r="C471" s="21"/>
       <c r="D471" s="22"/>
     </row>
-    <row r="472" spans="1:4" ht="13.8" customHeight="1" thickBot="1">
+    <row r="472" spans="1:4" ht="14.4" thickBot="1">
       <c r="A472" s="26" t="s">
         <v>22</v>
       </c>
@@ -28113,7 +28177,7 @@
         <v>72</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>1</v>
@@ -28121,1171 +28185,1174 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="27">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="B473" s="14">
         <f>A473*(9/5)+32</f>
-        <v>-40</v>
+        <v>-58</v>
       </c>
       <c r="C473" s="41">
-        <v>25.8</v>
+        <v>1000</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="28">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="B474" s="15">
-        <f t="shared" ref="B474:B476" si="51">A474*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C474" s="15">
-        <v>21.6</v>
-      </c>
-      <c r="D474" s="16" t="s">
-        <v>48</v>
-      </c>
+        <f t="shared" ref="B474" si="57">A474*(9/5)+32</f>
+        <v>-22</v>
+      </c>
+      <c r="C474" s="39">
+        <v>200</v>
+      </c>
+      <c r="D474" s="16"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="28">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B475" s="15">
-        <f t="shared" si="51"/>
-        <v>104</v>
+        <f t="shared" ref="B475:B477" si="58">A475*(9/5)+32</f>
+        <v>32</v>
       </c>
       <c r="C475" s="15">
-        <v>17.600000000000001</v>
+        <v>33</v>
       </c>
       <c r="D475" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="28">
+        <v>70</v>
+      </c>
+      <c r="B476" s="15">
+        <f t="shared" si="58"/>
+        <v>158</v>
+      </c>
+      <c r="C476" s="15">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D476" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A477" s="29">
+        <v>180</v>
+      </c>
+      <c r="B477" s="17">
+        <f t="shared" si="58"/>
+        <v>356</v>
+      </c>
+      <c r="C477" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="D477" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A478" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="20"/>
+      <c r="D478" s="20"/>
+    </row>
+    <row r="479" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A479" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B479" s="81"/>
+      <c r="C479" s="81"/>
+      <c r="D479" s="82"/>
+    </row>
+    <row r="480" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A480" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A476" s="29">
-        <v>80</v>
-      </c>
-      <c r="B476" s="17">
-        <f t="shared" si="51"/>
-        <v>176</v>
-      </c>
-      <c r="C476" s="40">
-        <v>14</v>
-      </c>
-      <c r="D476" s="18" t="s">
+      <c r="B480" s="21"/>
+      <c r="C480" s="21"/>
+      <c r="D480" s="22"/>
+    </row>
+    <row r="481" spans="1:4" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A481" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B482" s="14">
+        <f>A482*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C482" s="41">
+        <v>25.8</v>
+      </c>
+      <c r="D482" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A477" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B477" s="20"/>
-      <c r="C477" s="20"/>
-      <c r="D477" s="20"/>
-    </row>
-    <row r="478" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A478" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B478" s="81"/>
-      <c r="C478" s="81"/>
-      <c r="D478" s="82"/>
-    </row>
-    <row r="479" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A479" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B479" s="21"/>
-      <c r="C479" s="21"/>
-      <c r="D479" s="22"/>
-    </row>
-    <row r="480" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A480" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B481" s="14">
-        <f>A481*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C481" s="41">
-        <v>26.9</v>
-      </c>
-      <c r="D481" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="28">
-        <v>0</v>
-      </c>
-      <c r="B482" s="15">
-        <f t="shared" ref="B482:B484" si="52">A482*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C482" s="39">
-        <v>23.5</v>
-      </c>
-      <c r="D482" s="16" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="28">
+        <v>0</v>
+      </c>
+      <c r="B483" s="15">
+        <f t="shared" ref="B483:B485" si="59">A483*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C483" s="15">
+        <v>21.6</v>
+      </c>
+      <c r="D483" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="28">
         <v>40</v>
       </c>
-      <c r="B483" s="15">
-        <f t="shared" si="52"/>
+      <c r="B484" s="15">
+        <f t="shared" si="59"/>
         <v>104</v>
       </c>
-      <c r="C483" s="39">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D483" s="16" t="s">
+      <c r="C484" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D484" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A485" s="29">
+        <v>80</v>
+      </c>
+      <c r="B485" s="17">
+        <f t="shared" si="59"/>
+        <v>176</v>
+      </c>
+      <c r="C485" s="40">
+        <v>14</v>
+      </c>
+      <c r="D485" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A486" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="20"/>
+      <c r="D486" s="20"/>
+    </row>
+    <row r="487" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A487" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B487" s="84"/>
+      <c r="C487" s="84"/>
+      <c r="D487" s="85"/>
+    </row>
+    <row r="488" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A488" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A484" s="29">
-        <v>80</v>
-      </c>
-      <c r="B484" s="17">
-        <f t="shared" si="52"/>
-        <v>176</v>
-      </c>
-      <c r="C484" s="39">
-        <v>16.7</v>
-      </c>
-      <c r="D484" s="16" t="s">
+      <c r="B488" s="21"/>
+      <c r="C488" s="21"/>
+      <c r="D488" s="22"/>
+    </row>
+    <row r="489" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A489" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B490" s="14">
+        <f>A490*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C490" s="41">
+        <v>26.9</v>
+      </c>
+      <c r="D490" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A485" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B485" s="20"/>
-      <c r="C485" s="20"/>
-      <c r="D485" s="20"/>
-    </row>
-    <row r="486" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A486" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B486" s="81"/>
-      <c r="C486" s="81"/>
-      <c r="D486" s="82"/>
-    </row>
-    <row r="487" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A487" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B487" s="21"/>
-      <c r="C487" s="21"/>
-      <c r="D487" s="22"/>
-    </row>
-    <row r="488" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A488" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B489" s="14">
-        <f>A489*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C489" s="41">
-        <v>27.5</v>
-      </c>
-      <c r="D489" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="28">
-        <v>0</v>
-      </c>
-      <c r="B490" s="15">
-        <f t="shared" ref="B490:B492" si="53">A490*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C490" s="39">
-        <v>24.3</v>
-      </c>
-      <c r="D490" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="28">
+        <v>0</v>
+      </c>
+      <c r="B491" s="15">
+        <f t="shared" ref="B491:B493" si="60">A491*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C491" s="39">
+        <v>23.5</v>
+      </c>
+      <c r="D491" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="28">
         <v>40</v>
       </c>
-      <c r="B491" s="15">
-        <f t="shared" si="53"/>
+      <c r="B492" s="15">
+        <f t="shared" si="60"/>
         <v>104</v>
       </c>
-      <c r="C491" s="39">
-        <v>20.9</v>
-      </c>
-      <c r="D491" s="16" t="s">
+      <c r="C492" s="39">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D492" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A493" s="29">
+        <v>80</v>
+      </c>
+      <c r="B493" s="17">
+        <f t="shared" si="60"/>
+        <v>176</v>
+      </c>
+      <c r="C493" s="39">
+        <v>16.7</v>
+      </c>
+      <c r="D493" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A494" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="20"/>
+      <c r="D494" s="20"/>
+    </row>
+    <row r="495" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A495" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B495" s="84"/>
+      <c r="C495" s="84"/>
+      <c r="D495" s="85"/>
+    </row>
+    <row r="496" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A496" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A492" s="28">
-        <v>80</v>
-      </c>
-      <c r="B492" s="17">
-        <f t="shared" si="53"/>
-        <v>176</v>
-      </c>
-      <c r="C492" s="39">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D492" s="16" t="s">
+      <c r="B496" s="21"/>
+      <c r="C496" s="21"/>
+      <c r="D496" s="22"/>
+    </row>
+    <row r="497" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A497" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B498" s="14">
+        <f>A498*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C498" s="41">
+        <v>27.5</v>
+      </c>
+      <c r="D498" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A493" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B493" s="20"/>
-      <c r="C493" s="20"/>
-      <c r="D493" s="20"/>
-    </row>
-    <row r="494" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A494" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B494" s="81"/>
-      <c r="C494" s="81"/>
-      <c r="D494" s="82"/>
-    </row>
-    <row r="495" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A495" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B495" s="21"/>
-      <c r="C495" s="21"/>
-      <c r="D495" s="22"/>
-    </row>
-    <row r="496" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A496" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B497" s="14">
-        <f>A497*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C497" s="41">
-        <v>27.75</v>
-      </c>
-      <c r="D497" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="28">
-        <v>0</v>
-      </c>
-      <c r="B498" s="15">
-        <f t="shared" ref="B498:B500" si="54">A498*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C498" s="15">
-        <v>24.6</v>
-      </c>
-      <c r="D498" s="16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="28">
+        <v>0</v>
+      </c>
+      <c r="B499" s="15">
+        <f t="shared" ref="B499:B501" si="61">A499*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C499" s="39">
+        <v>24.3</v>
+      </c>
+      <c r="D499" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="28">
         <v>40</v>
       </c>
-      <c r="B499" s="15">
-        <f t="shared" si="54"/>
+      <c r="B500" s="15">
+        <f t="shared" si="61"/>
         <v>104</v>
       </c>
-      <c r="C499" s="15">
-        <v>21.4</v>
-      </c>
-      <c r="D499" s="16" t="s">
+      <c r="C500" s="39">
+        <v>20.9</v>
+      </c>
+      <c r="D500" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A501" s="28">
+        <v>80</v>
+      </c>
+      <c r="B501" s="17">
+        <f t="shared" si="61"/>
+        <v>176</v>
+      </c>
+      <c r="C501" s="39">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D501" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A502" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="20"/>
+      <c r="D502" s="20"/>
+    </row>
+    <row r="503" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A503" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B503" s="84"/>
+      <c r="C503" s="84"/>
+      <c r="D503" s="85"/>
+    </row>
+    <row r="504" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A504" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A500" s="29">
-        <v>80</v>
-      </c>
-      <c r="B500" s="17">
-        <f t="shared" si="54"/>
-        <v>176</v>
-      </c>
-      <c r="C500" s="40">
-        <v>18.2</v>
-      </c>
-      <c r="D500" s="18" t="s">
+      <c r="B504" s="21"/>
+      <c r="C504" s="21"/>
+      <c r="D504" s="22"/>
+    </row>
+    <row r="505" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A505" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B506" s="14">
+        <f>A506*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C506" s="41">
+        <v>27.75</v>
+      </c>
+      <c r="D506" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A501" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B501" s="20"/>
-      <c r="C501" s="20"/>
-      <c r="D501" s="20"/>
-    </row>
-    <row r="502" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A502" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B502" s="81"/>
-      <c r="C502" s="81"/>
-      <c r="D502" s="82"/>
-    </row>
-    <row r="503" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A503" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B503" s="21"/>
-      <c r="C503" s="21"/>
-      <c r="D503" s="22"/>
-    </row>
-    <row r="504" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A504" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D504" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" s="28">
-        <v>-40</v>
-      </c>
-      <c r="B505" s="14">
-        <f>A505*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C505" s="39">
-        <v>28</v>
-      </c>
-      <c r="D505" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="28">
-        <v>0</v>
-      </c>
-      <c r="B506" s="15">
-        <f t="shared" ref="B506:B508" si="55">A506*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C506" s="39">
-        <v>24.7</v>
-      </c>
-      <c r="D506" s="16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="28">
+        <v>0</v>
+      </c>
+      <c r="B507" s="15">
+        <f t="shared" ref="B507:B509" si="62">A507*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C507" s="15">
+        <v>24.6</v>
+      </c>
+      <c r="D507" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="28">
         <v>40</v>
       </c>
-      <c r="B507" s="15">
-        <f t="shared" si="55"/>
+      <c r="B508" s="15">
+        <f t="shared" si="62"/>
         <v>104</v>
       </c>
-      <c r="C507" s="39">
-        <v>21.7</v>
-      </c>
-      <c r="D507" s="16" t="s">
+      <c r="C508" s="15">
+        <v>21.4</v>
+      </c>
+      <c r="D508" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A509" s="29">
+        <v>80</v>
+      </c>
+      <c r="B509" s="17">
+        <f t="shared" si="62"/>
+        <v>176</v>
+      </c>
+      <c r="C509" s="40">
+        <v>18.2</v>
+      </c>
+      <c r="D509" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A510" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B510" s="20"/>
+      <c r="C510" s="20"/>
+      <c r="D510" s="20"/>
+    </row>
+    <row r="511" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A511" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B511" s="84"/>
+      <c r="C511" s="84"/>
+      <c r="D511" s="85"/>
+    </row>
+    <row r="512" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A512" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A508" s="28">
-        <v>80</v>
-      </c>
-      <c r="B508" s="17">
-        <f t="shared" si="55"/>
-        <v>176</v>
-      </c>
-      <c r="C508" s="39">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D508" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A509" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B509" s="20"/>
-      <c r="C509" s="20"/>
-      <c r="D509" s="20"/>
-    </row>
-    <row r="510" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A510" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B510" s="81"/>
-      <c r="C510" s="81"/>
-      <c r="D510" s="82"/>
-    </row>
-    <row r="511" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A511" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B511" s="21"/>
-      <c r="C511" s="21"/>
-      <c r="D511" s="22"/>
-    </row>
-    <row r="512" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A512" s="26" t="s">
+      <c r="B512" s="21"/>
+      <c r="C512" s="21"/>
+      <c r="D512" s="22"/>
+    </row>
+    <row r="513" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A513" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B513" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C512" s="3" t="s">
+      <c r="C513" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D512" s="1" t="s">
+      <c r="D513" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
-      <c r="A513" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B513" s="14">
-        <f>A513*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C513" s="41">
-        <v>28.2</v>
-      </c>
-      <c r="D513" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="28">
-        <v>0</v>
-      </c>
-      <c r="B514" s="15">
-        <f t="shared" ref="B514:B516" si="56">A514*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C514" s="15">
-        <v>25.3</v>
+        <v>-40</v>
+      </c>
+      <c r="B514" s="14">
+        <f>A514*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C514" s="39">
+        <v>28</v>
       </c>
       <c r="D514" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="28">
+        <v>0</v>
+      </c>
+      <c r="B515" s="15">
+        <f t="shared" ref="B515:B517" si="63">A515*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C515" s="39">
+        <v>24.7</v>
+      </c>
+      <c r="D515" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="28">
         <v>40</v>
       </c>
-      <c r="B515" s="15">
-        <f t="shared" si="56"/>
+      <c r="B516" s="15">
+        <f t="shared" si="63"/>
         <v>104</v>
       </c>
-      <c r="C515" s="15">
-        <v>22.2</v>
-      </c>
-      <c r="D515" s="16" t="s">
+      <c r="C516" s="39">
+        <v>21.7</v>
+      </c>
+      <c r="D516" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A517" s="28">
+        <v>80</v>
+      </c>
+      <c r="B517" s="17">
+        <f t="shared" si="63"/>
+        <v>176</v>
+      </c>
+      <c r="C517" s="39">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D517" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A518" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B518" s="20"/>
+      <c r="C518" s="20"/>
+      <c r="D518" s="20"/>
+    </row>
+    <row r="519" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A519" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B519" s="84"/>
+      <c r="C519" s="84"/>
+      <c r="D519" s="85"/>
+    </row>
+    <row r="520" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A520" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A516" s="29">
-        <v>80</v>
-      </c>
-      <c r="B516" s="17">
-        <f t="shared" si="56"/>
-        <v>176</v>
-      </c>
-      <c r="C516" s="40">
-        <v>19.7</v>
-      </c>
-      <c r="D516" s="18" t="s">
+      <c r="B520" s="21"/>
+      <c r="C520" s="21"/>
+      <c r="D520" s="22"/>
+    </row>
+    <row r="521" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A521" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B522" s="14">
+        <f>A522*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C522" s="41">
+        <v>28.2</v>
+      </c>
+      <c r="D522" s="9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A517" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B517" s="20"/>
-      <c r="C517" s="20"/>
-      <c r="D517" s="20"/>
-    </row>
-    <row r="518" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A518" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B518" s="7"/>
-      <c r="C518" s="7"/>
-      <c r="D518" s="8"/>
-    </row>
-    <row r="519" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A519" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B519" s="21"/>
-      <c r="C519" s="21"/>
-      <c r="D519" s="22"/>
-    </row>
-    <row r="520" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A520" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="A521" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B521" s="14">
-        <f>A521*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C521" s="41">
-        <v>30.9</v>
-      </c>
-      <c r="D521" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="A522" s="28">
-        <v>0</v>
-      </c>
-      <c r="B522" s="15">
-        <f t="shared" ref="B522:B524" si="57">A522*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C522" s="39">
-        <v>28.1</v>
-      </c>
-      <c r="D522" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="28">
+        <v>0</v>
+      </c>
+      <c r="B523" s="15">
+        <f t="shared" ref="B523:B525" si="64">A523*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C523" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="D523" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="28">
         <v>40</v>
       </c>
-      <c r="B523" s="15">
-        <f t="shared" si="57"/>
+      <c r="B524" s="15">
+        <f t="shared" si="64"/>
         <v>104</v>
       </c>
-      <c r="C523" s="39">
-        <v>25.3</v>
-      </c>
-      <c r="D523" s="16" t="s">
+      <c r="C524" s="15">
+        <v>22.2</v>
+      </c>
+      <c r="D524" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A525" s="29">
+        <v>80</v>
+      </c>
+      <c r="B525" s="17">
+        <f t="shared" si="64"/>
+        <v>176</v>
+      </c>
+      <c r="C525" s="40">
+        <v>19.7</v>
+      </c>
+      <c r="D525" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A526" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="20"/>
+      <c r="D526" s="20"/>
+    </row>
+    <row r="527" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A527" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B527" s="7"/>
+      <c r="C527" s="7"/>
+      <c r="D527" s="8"/>
+    </row>
+    <row r="528" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A528" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A524" s="29">
-        <v>80</v>
-      </c>
-      <c r="B524" s="17">
-        <f t="shared" si="57"/>
-        <v>176</v>
-      </c>
-      <c r="C524" s="40">
-        <v>22.6</v>
-      </c>
-      <c r="D524" s="18" t="s">
+      <c r="B528" s="21"/>
+      <c r="C528" s="21"/>
+      <c r="D528" s="22"/>
+    </row>
+    <row r="529" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A529" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B530" s="14">
+        <f>A530*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C530" s="41">
+        <v>30.9</v>
+      </c>
+      <c r="D530" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A525" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B525" s="20"/>
-      <c r="C525" s="20"/>
-      <c r="D525" s="20"/>
-    </row>
-    <row r="526" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A526" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B526" s="11"/>
-      <c r="C526" s="11"/>
-      <c r="D526" s="12"/>
-    </row>
-    <row r="527" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A527" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B527" s="21"/>
-      <c r="C527" s="21"/>
-      <c r="D527" s="22"/>
-    </row>
-    <row r="528" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A528" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
-      <c r="A529" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B529" s="14">
-        <f>A529*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C529" s="41">
-        <v>36.5</v>
-      </c>
-      <c r="D529" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
-      <c r="A530" s="28">
-        <v>0</v>
-      </c>
-      <c r="B530" s="15">
-        <f t="shared" ref="B530:B532" si="58">A530*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C530" s="39">
-        <v>32.9</v>
-      </c>
-      <c r="D530" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="28">
+        <v>0</v>
+      </c>
+      <c r="B531" s="15">
+        <f t="shared" ref="B531:B533" si="65">A531*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C531" s="39">
+        <v>28.1</v>
+      </c>
+      <c r="D531" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="28">
         <v>40</v>
       </c>
-      <c r="B531" s="15">
-        <f t="shared" si="58"/>
+      <c r="B532" s="15">
+        <f t="shared" si="65"/>
         <v>104</v>
       </c>
-      <c r="C531" s="39">
-        <v>29.4</v>
-      </c>
-      <c r="D531" s="16" t="s">
+      <c r="C532" s="39">
+        <v>25.3</v>
+      </c>
+      <c r="D532" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A533" s="29">
+        <v>80</v>
+      </c>
+      <c r="B533" s="17">
+        <f t="shared" si="65"/>
+        <v>176</v>
+      </c>
+      <c r="C533" s="40">
+        <v>22.6</v>
+      </c>
+      <c r="D533" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A534" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B534" s="20"/>
+      <c r="C534" s="20"/>
+      <c r="D534" s="20"/>
+    </row>
+    <row r="535" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A535" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B535" s="11"/>
+      <c r="C535" s="11"/>
+      <c r="D535" s="12"/>
+    </row>
+    <row r="536" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A536" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A532" s="29">
-        <v>80</v>
-      </c>
-      <c r="B532" s="17">
-        <f t="shared" si="58"/>
-        <v>176</v>
-      </c>
-      <c r="C532" s="39">
-        <v>25.6</v>
-      </c>
-      <c r="D532" s="18" t="s">
+      <c r="B536" s="21"/>
+      <c r="C536" s="21"/>
+      <c r="D536" s="22"/>
+    </row>
+    <row r="537" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A537" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B538" s="14">
+        <f>A538*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C538" s="41">
+        <v>36.5</v>
+      </c>
+      <c r="D538" s="9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A533" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B533" s="20"/>
-      <c r="C533" s="20"/>
-      <c r="D533" s="20"/>
-    </row>
-    <row r="534" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A534" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B534" s="11"/>
-      <c r="C534" s="11"/>
-      <c r="D534" s="12"/>
-    </row>
-    <row r="535" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A535" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B535" s="21"/>
-      <c r="C535" s="21"/>
-      <c r="D535" s="22"/>
-    </row>
-    <row r="536" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A536" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D536" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="A537" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B537" s="14">
-        <f>A537*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C537" s="41">
-        <v>38.9</v>
-      </c>
-      <c r="D537" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="A538" s="28">
-        <v>0</v>
-      </c>
-      <c r="B538" s="15">
-        <f t="shared" ref="B538:B540" si="59">A538*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C538" s="39">
-        <v>34.9</v>
-      </c>
-      <c r="D538" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="28">
+        <v>0</v>
+      </c>
+      <c r="B539" s="15">
+        <f t="shared" ref="B539:B541" si="66">A539*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C539" s="39">
+        <v>32.9</v>
+      </c>
+      <c r="D539" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="28">
         <v>40</v>
       </c>
-      <c r="B539" s="15">
-        <f t="shared" si="59"/>
+      <c r="B540" s="15">
+        <f t="shared" si="66"/>
         <v>104</v>
       </c>
-      <c r="C539" s="39">
-        <v>30.8</v>
-      </c>
-      <c r="D539" s="16" t="s">
+      <c r="C540" s="39">
+        <v>29.4</v>
+      </c>
+      <c r="D540" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A541" s="29">
+        <v>80</v>
+      </c>
+      <c r="B541" s="17">
+        <f t="shared" si="66"/>
+        <v>176</v>
+      </c>
+      <c r="C541" s="39">
+        <v>25.6</v>
+      </c>
+      <c r="D541" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A542" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B542" s="20"/>
+      <c r="C542" s="20"/>
+      <c r="D542" s="20"/>
+    </row>
+    <row r="543" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A543" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B543" s="11"/>
+      <c r="C543" s="11"/>
+      <c r="D543" s="12"/>
+    </row>
+    <row r="544" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A544" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A540" s="28">
-        <v>80</v>
-      </c>
-      <c r="B540" s="17">
-        <f t="shared" si="59"/>
-        <v>176</v>
-      </c>
-      <c r="C540" s="39">
-        <v>26.8</v>
-      </c>
-      <c r="D540" s="18" t="s">
+      <c r="B544" s="21"/>
+      <c r="C544" s="21"/>
+      <c r="D544" s="22"/>
+    </row>
+    <row r="545" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A545" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B546" s="14">
+        <f>A546*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C546" s="41">
+        <v>38.9</v>
+      </c>
+      <c r="D546" s="9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A541" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B541" s="20"/>
-      <c r="C541" s="20"/>
-      <c r="D541" s="20"/>
-    </row>
-    <row r="542" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A542" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B542" s="11"/>
-      <c r="C542" s="11"/>
-      <c r="D542" s="12"/>
-    </row>
-    <row r="543" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A543" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B543" s="21"/>
-      <c r="C543" s="21"/>
-      <c r="D543" s="22"/>
-    </row>
-    <row r="544" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A544" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D544" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
-      <c r="A545" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B545" s="14">
-        <f>A545*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C545" s="41">
-        <v>39.9</v>
-      </c>
-      <c r="D545" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
-      <c r="A546" s="28">
-        <v>0</v>
-      </c>
-      <c r="B546" s="15">
-        <f t="shared" ref="B546:B548" si="60">A546*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C546" s="39">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="D546" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="28">
+        <v>0</v>
+      </c>
+      <c r="B547" s="15">
+        <f t="shared" ref="B547:B549" si="67">A547*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C547" s="39">
+        <v>34.9</v>
+      </c>
+      <c r="D547" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="28">
         <v>40</v>
       </c>
-      <c r="B547" s="15">
-        <f t="shared" si="60"/>
+      <c r="B548" s="15">
+        <f t="shared" si="67"/>
         <v>104</v>
       </c>
-      <c r="C547" s="39">
-        <v>31.8</v>
-      </c>
-      <c r="D547" s="16" t="s">
+      <c r="C548" s="39">
+        <v>30.8</v>
+      </c>
+      <c r="D548" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A549" s="28">
+        <v>80</v>
+      </c>
+      <c r="B549" s="17">
+        <f t="shared" si="67"/>
+        <v>176</v>
+      </c>
+      <c r="C549" s="39">
+        <v>26.8</v>
+      </c>
+      <c r="D549" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A550" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B550" s="20"/>
+      <c r="C550" s="20"/>
+      <c r="D550" s="20"/>
+    </row>
+    <row r="551" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A551" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B551" s="11"/>
+      <c r="C551" s="11"/>
+      <c r="D551" s="12"/>
+    </row>
+    <row r="552" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A552" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A548" s="29">
-        <v>80</v>
-      </c>
-      <c r="B548" s="17">
-        <f t="shared" si="60"/>
-        <v>176</v>
-      </c>
-      <c r="C548" s="40">
-        <v>27.8</v>
-      </c>
-      <c r="D548" s="18" t="s">
+      <c r="B552" s="21"/>
+      <c r="C552" s="21"/>
+      <c r="D552" s="22"/>
+    </row>
+    <row r="553" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A553" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B554" s="14">
+        <f>A554*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C554" s="41">
+        <v>39.9</v>
+      </c>
+      <c r="D554" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A549" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B549" s="20"/>
-      <c r="C549" s="20"/>
-      <c r="D549" s="20"/>
-    </row>
-    <row r="550" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A550" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B550" s="11"/>
-      <c r="C550" s="11"/>
-      <c r="D550" s="12"/>
-    </row>
-    <row r="551" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A551" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B551" s="21"/>
-      <c r="C551" s="21"/>
-      <c r="D551" s="22"/>
-    </row>
-    <row r="552" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A552" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B552" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C552" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D552" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="27">
-        <v>-40</v>
-      </c>
-      <c r="B553" s="14">
-        <f>A553*(9/5)+32</f>
-        <v>-40</v>
-      </c>
-      <c r="C553" s="41">
-        <v>46.1</v>
-      </c>
-      <c r="D553" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="28">
-        <v>0</v>
-      </c>
-      <c r="B554" s="15">
-        <f t="shared" ref="B554:B556" si="61">A554*(9/5)+32</f>
-        <v>32</v>
-      </c>
-      <c r="C554" s="39">
-        <v>42.2</v>
-      </c>
-      <c r="D554" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="28">
+        <v>0</v>
+      </c>
+      <c r="B555" s="15">
+        <f t="shared" ref="B555:B557" si="68">A555*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C555" s="39">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D555" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="28">
         <v>40</v>
       </c>
-      <c r="B555" s="15">
-        <f t="shared" si="61"/>
+      <c r="B556" s="15">
+        <f t="shared" si="68"/>
         <v>104</v>
       </c>
-      <c r="C555" s="39">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="D555" s="16" t="s">
+      <c r="C556" s="39">
+        <v>31.8</v>
+      </c>
+      <c r="D556" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A557" s="29">
+        <v>80</v>
+      </c>
+      <c r="B557" s="17">
+        <f t="shared" si="68"/>
+        <v>176</v>
+      </c>
+      <c r="C557" s="40">
+        <v>27.8</v>
+      </c>
+      <c r="D557" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A558" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B558" s="20"/>
+      <c r="C558" s="20"/>
+      <c r="D558" s="20"/>
+    </row>
+    <row r="559" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A559" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B559" s="11"/>
+      <c r="C559" s="11"/>
+      <c r="D559" s="12"/>
+    </row>
+    <row r="560" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A560" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A556" s="29">
-        <v>80</v>
-      </c>
-      <c r="B556" s="17">
-        <f t="shared" si="61"/>
-        <v>176</v>
-      </c>
-      <c r="C556" s="40">
-        <v>34</v>
-      </c>
-      <c r="D556" s="18" t="s">
+      <c r="B560" s="21"/>
+      <c r="C560" s="21"/>
+      <c r="D560" s="22"/>
+    </row>
+    <row r="561" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A561" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="27">
+        <v>-40</v>
+      </c>
+      <c r="B562" s="14">
+        <f>A562*(9/5)+32</f>
+        <v>-40</v>
+      </c>
+      <c r="C562" s="41">
+        <v>46.1</v>
+      </c>
+      <c r="D562" s="9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A557" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B557" s="20"/>
-      <c r="C557" s="20"/>
-      <c r="D557" s="20"/>
-    </row>
-    <row r="558" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A558" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B558" s="7"/>
-      <c r="C558" s="7"/>
-      <c r="D558" s="8"/>
-    </row>
-    <row r="559" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A559" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B559" s="10"/>
-      <c r="C559" s="10"/>
-      <c r="D559" s="38"/>
-    </row>
-    <row r="560" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A560" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B560" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C560" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D560" s="45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="27">
-        <v>0</v>
-      </c>
-      <c r="B561" s="27">
-        <v>0</v>
-      </c>
-      <c r="C561" s="14">
-        <v>104</v>
-      </c>
-      <c r="D561" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="28">
-        <v>20</v>
-      </c>
-      <c r="B562" s="28">
-        <v>20</v>
-      </c>
-      <c r="C562" s="15">
-        <v>179.6</v>
-      </c>
-      <c r="D562" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="28">
-        <v>50</v>
-      </c>
-      <c r="B563" s="28">
-        <v>50</v>
-      </c>
-      <c r="C563" s="15">
-        <v>219.20000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="B563" s="15">
+        <f t="shared" ref="B563:B565" si="69">A563*(9/5)+32</f>
+        <v>32</v>
+      </c>
+      <c r="C563" s="39">
+        <v>42.2</v>
       </c>
       <c r="D563" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="28">
-        <v>80</v>
-      </c>
-      <c r="B564" s="28">
-        <v>80</v>
-      </c>
-      <c r="C564" s="15">
-        <v>235.4</v>
+        <v>40</v>
+      </c>
+      <c r="B564" s="15">
+        <f t="shared" si="69"/>
+        <v>104</v>
+      </c>
+      <c r="C564" s="39">
+        <v>38.200000000000003</v>
       </c>
       <c r="D564" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="14.4" thickBot="1">
       <c r="A565" s="29">
-        <v>100</v>
-      </c>
-      <c r="B565" s="29">
-        <v>100</v>
-      </c>
-      <c r="C565" s="17">
-        <v>316.40000000000003</v>
+        <v>80</v>
+      </c>
+      <c r="B565" s="17">
+        <f t="shared" si="69"/>
+        <v>176</v>
+      </c>
+      <c r="C565" s="40">
+        <v>34</v>
       </c>
       <c r="D565" s="18" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="14.4" thickBot="1">
       <c r="A566" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="20"/>
       <c r="D566" s="20"/>
     </row>
     <row r="567" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A567" s="19" t="s">
+      <c r="A567" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B567" s="11"/>
-      <c r="C567" s="11"/>
-      <c r="D567" s="12"/>
+      <c r="B567" s="7"/>
+      <c r="C567" s="7"/>
+      <c r="D567" s="8"/>
     </row>
     <row r="568" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A568" s="18" t="s">
-        <v>4</v>
+      <c r="A568" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
@@ -29313,10 +29380,10 @@
         <v>0</v>
       </c>
       <c r="C570" s="14">
-        <v>150.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="D570" s="9" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -29327,10 +29394,10 @@
         <v>20</v>
       </c>
       <c r="C571" s="15">
-        <v>239</v>
+        <v>179.6</v>
       </c>
       <c r="D571" s="16" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -29341,10 +29408,10 @@
         <v>50</v>
       </c>
       <c r="C572" s="15">
-        <v>298.40000000000003</v>
+        <v>219.20000000000002</v>
       </c>
       <c r="D572" s="16" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -29355,10 +29422,10 @@
         <v>80</v>
       </c>
       <c r="C573" s="15">
-        <v>377.6</v>
+        <v>235.4</v>
       </c>
       <c r="D573" s="16" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="14.4" thickBot="1">
@@ -29369,15 +29436,15 @@
         <v>100</v>
       </c>
       <c r="C574" s="17">
-        <v>474.8</v>
+        <v>316.40000000000003</v>
       </c>
       <c r="D574" s="18" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.4" thickBot="1">
       <c r="A575" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="20"/>
@@ -29392,8 +29459,8 @@
       <c r="D576" s="12"/>
     </row>
     <row r="577" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A577" s="9" t="s">
-        <v>59</v>
+      <c r="A577" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="10"/>
@@ -29421,10 +29488,10 @@
         <v>0</v>
       </c>
       <c r="C579" s="14">
-        <v>348.8</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="D579" s="9" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -29435,10 +29502,10 @@
         <v>20</v>
       </c>
       <c r="C580" s="15">
-        <v>395.6</v>
+        <v>239</v>
       </c>
       <c r="D580" s="16" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -29449,10 +29516,10 @@
         <v>50</v>
       </c>
       <c r="C581" s="15">
-        <v>413.6</v>
+        <v>298.40000000000003</v>
       </c>
       <c r="D581" s="16" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -29463,10 +29530,10 @@
         <v>80</v>
       </c>
       <c r="C582" s="15">
-        <v>453.2</v>
+        <v>377.6</v>
       </c>
       <c r="D582" s="16" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="14.4" thickBot="1">
@@ -29477,35 +29544,35 @@
         <v>100</v>
       </c>
       <c r="C583" s="17">
-        <v>510.8</v>
+        <v>474.8</v>
       </c>
       <c r="D583" s="18" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="14.4" thickBot="1">
       <c r="A584" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="20"/>
       <c r="D584" s="20"/>
     </row>
     <row r="585" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A585" s="6" t="s">
+      <c r="A585" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B585" s="7"/>
-      <c r="C585" s="7"/>
-      <c r="D585" s="8"/>
+      <c r="B585" s="11"/>
+      <c r="C585" s="11"/>
+      <c r="D585" s="12"/>
     </row>
     <row r="586" spans="1:4" ht="14.4" thickBot="1">
       <c r="A586" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B586" s="21"/>
-      <c r="C586" s="21"/>
-      <c r="D586" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B586" s="10"/>
+      <c r="C586" s="10"/>
+      <c r="D586" s="38"/>
     </row>
     <row r="587" spans="1:4" ht="14.4" thickBot="1">
       <c r="A587" s="42" t="s">
@@ -29529,10 +29596,10 @@
         <v>0</v>
       </c>
       <c r="C588" s="14">
-        <v>323.60000000000002</v>
+        <v>348.8</v>
       </c>
       <c r="D588" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -29543,10 +29610,10 @@
         <v>20</v>
       </c>
       <c r="C589" s="15">
-        <v>363.2</v>
+        <v>395.6</v>
       </c>
       <c r="D589" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -29557,10 +29624,10 @@
         <v>50</v>
       </c>
       <c r="C590" s="15">
-        <v>356</v>
+        <v>413.6</v>
       </c>
       <c r="D590" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -29571,10 +29638,10 @@
         <v>80</v>
       </c>
       <c r="C591" s="15">
-        <v>399.2</v>
+        <v>453.2</v>
       </c>
       <c r="D591" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="14.4" thickBot="1">
@@ -29585,31 +29652,31 @@
         <v>100</v>
       </c>
       <c r="C592" s="17">
-        <v>482</v>
+        <v>510.8</v>
       </c>
       <c r="D592" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="14.4" thickBot="1">
       <c r="A593" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="20"/>
       <c r="D593" s="20"/>
     </row>
     <row r="594" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A594" s="19" t="s">
+      <c r="A594" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B594" s="11"/>
-      <c r="C594" s="11"/>
-      <c r="D594" s="12"/>
+      <c r="B594" s="7"/>
+      <c r="C594" s="7"/>
+      <c r="D594" s="8"/>
     </row>
     <row r="595" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A595" s="16" t="s">
-        <v>8</v>
+      <c r="A595" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B595" s="21"/>
       <c r="C595" s="21"/>
@@ -29637,10 +29704,10 @@
         <v>0</v>
       </c>
       <c r="C597" s="14">
-        <v>370.40000000000003</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="D597" s="9" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -29651,10 +29718,10 @@
         <v>20</v>
       </c>
       <c r="C598" s="15">
-        <v>406.40000000000003</v>
+        <v>363.2</v>
       </c>
       <c r="D598" s="16" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -29665,10 +29732,10 @@
         <v>50</v>
       </c>
       <c r="C599" s="15">
-        <v>424.40000000000003</v>
+        <v>356</v>
       </c>
       <c r="D599" s="16" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -29679,10 +29746,10 @@
         <v>80</v>
       </c>
       <c r="C600" s="15">
-        <v>438.8</v>
+        <v>399.2</v>
       </c>
       <c r="D600" s="16" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="14.4" thickBot="1">
@@ -29693,15 +29760,15 @@
         <v>100</v>
       </c>
       <c r="C601" s="17">
-        <v>503.6</v>
+        <v>482</v>
       </c>
       <c r="D601" s="18" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="14.4" thickBot="1">
       <c r="A602" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="20"/>
@@ -29716,8 +29783,8 @@
       <c r="D603" s="12"/>
     </row>
     <row r="604" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A604" s="9" t="s">
-        <v>7</v>
+      <c r="A604" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B604" s="21"/>
       <c r="C604" s="21"/>
@@ -29745,10 +29812,10 @@
         <v>0</v>
       </c>
       <c r="C606" s="14">
-        <v>384.8</v>
+        <v>370.40000000000003</v>
       </c>
       <c r="D606" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -29759,10 +29826,10 @@
         <v>20</v>
       </c>
       <c r="C607" s="15">
-        <v>413.6</v>
+        <v>406.40000000000003</v>
       </c>
       <c r="D607" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -29773,10 +29840,10 @@
         <v>50</v>
       </c>
       <c r="C608" s="15">
-        <v>413.6</v>
+        <v>424.40000000000003</v>
       </c>
       <c r="D608" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -29787,10 +29854,10 @@
         <v>80</v>
       </c>
       <c r="C609" s="15">
-        <v>428</v>
+        <v>438.8</v>
       </c>
       <c r="D609" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="14.4" thickBot="1">
@@ -29801,35 +29868,35 @@
         <v>100</v>
       </c>
       <c r="C610" s="17">
-        <v>492.8</v>
+        <v>503.6</v>
       </c>
       <c r="D610" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="14.4" thickBot="1">
       <c r="A611" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="20"/>
       <c r="D611" s="20"/>
     </row>
     <row r="612" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A612" s="6" t="s">
+      <c r="A612" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B612" s="7"/>
-      <c r="C612" s="7"/>
-      <c r="D612" s="8"/>
+      <c r="B612" s="11"/>
+      <c r="C612" s="11"/>
+      <c r="D612" s="12"/>
     </row>
     <row r="613" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A613" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B613" s="47"/>
-      <c r="C613" s="47"/>
-      <c r="D613" s="48"/>
+      <c r="A613" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B613" s="21"/>
+      <c r="C613" s="21"/>
+      <c r="D613" s="22"/>
     </row>
     <row r="614" spans="1:4" ht="14.4" thickBot="1">
       <c r="A614" s="42" t="s">
@@ -29846,402 +29913,373 @@
       </c>
     </row>
     <row r="615" spans="1:4">
-      <c r="A615" s="49">
+      <c r="A615" s="27">
         <v>0</v>
       </c>
-      <c r="B615" s="49">
+      <c r="B615" s="27">
         <v>0</v>
       </c>
-      <c r="C615" s="50">
+      <c r="C615" s="14">
+        <v>384.8</v>
+      </c>
+      <c r="D615" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="28">
+        <v>20</v>
+      </c>
+      <c r="B616" s="28">
+        <v>20</v>
+      </c>
+      <c r="C616" s="15">
+        <v>413.6</v>
+      </c>
+      <c r="D616" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="28">
+        <v>50</v>
+      </c>
+      <c r="B617" s="28">
+        <v>50</v>
+      </c>
+      <c r="C617" s="15">
+        <v>413.6</v>
+      </c>
+      <c r="D617" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="28">
+        <v>80</v>
+      </c>
+      <c r="B618" s="28">
+        <v>80</v>
+      </c>
+      <c r="C618" s="15">
+        <v>428</v>
+      </c>
+      <c r="D618" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A619" s="29">
+        <v>100</v>
+      </c>
+      <c r="B619" s="29">
+        <v>100</v>
+      </c>
+      <c r="C619" s="17">
+        <v>492.8</v>
+      </c>
+      <c r="D619" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A620" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B620" s="20"/>
+      <c r="C620" s="20"/>
+      <c r="D620" s="20"/>
+    </row>
+    <row r="621" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A621" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B621" s="7"/>
+      <c r="C621" s="7"/>
+      <c r="D621" s="8"/>
+    </row>
+    <row r="622" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A622" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B622" s="47"/>
+      <c r="C622" s="47"/>
+      <c r="D622" s="48"/>
+    </row>
+    <row r="623" spans="1:4" ht="14.4" thickBot="1">
+      <c r="A623" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B623" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C623" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D623" s="45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="49">
+        <v>0</v>
+      </c>
+      <c r="B624" s="49">
+        <v>0</v>
+      </c>
+      <c r="C624" s="50">
         <v>226.4</v>
       </c>
-      <c r="D615" s="46" t="s">
+      <c r="D624" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
-      <c r="A616" s="66">
+    <row r="625" spans="1:5">
+      <c r="A625" s="66">
         <v>20</v>
       </c>
-      <c r="B616" s="66">
+      <c r="B625" s="66">
         <v>20</v>
       </c>
-      <c r="C616" s="54">
+      <c r="C625" s="54">
         <v>341.6</v>
       </c>
-      <c r="D616" s="56" t="s">
+      <c r="D625" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
-      <c r="A617" s="66">
+    <row r="626" spans="1:5">
+      <c r="A626" s="66">
         <v>30</v>
       </c>
-      <c r="B617" s="66">
+      <c r="B626" s="66">
         <v>30</v>
       </c>
-      <c r="C617" s="54">
+      <c r="C626" s="54">
         <v>365</v>
       </c>
-      <c r="D617" s="56" t="s">
+      <c r="D626" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
-      <c r="A618" s="66">
+    <row r="627" spans="1:5">
+      <c r="A627" s="66">
         <v>40</v>
       </c>
-      <c r="B618" s="66">
+      <c r="B627" s="66">
         <v>40</v>
       </c>
-      <c r="C618" s="54">
+      <c r="C627" s="54">
         <v>366.8</v>
       </c>
-      <c r="D618" s="56" t="s">
+      <c r="D627" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A619" s="66">
+    <row r="628" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A628" s="66">
         <v>50</v>
       </c>
-      <c r="B619" s="66">
+      <c r="B628" s="66">
         <v>50</v>
       </c>
-      <c r="C619" s="58">
+      <c r="C628" s="58">
         <v>366.8</v>
       </c>
-      <c r="D619" s="56" t="s">
+      <c r="D628" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
-      <c r="A620" s="66">
+    <row r="629" spans="1:5">
+      <c r="A629" s="66">
         <v>60</v>
       </c>
-      <c r="B620" s="66">
+      <c r="B629" s="66">
         <v>60</v>
       </c>
-      <c r="C620" s="50">
+      <c r="C629" s="50">
         <v>366.8</v>
       </c>
-      <c r="D620" s="56" t="s">
+      <c r="D629" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
-      <c r="A621" s="66">
+    <row r="630" spans="1:5">
+      <c r="A630" s="66">
         <v>70</v>
       </c>
-      <c r="B621" s="66">
+      <c r="B630" s="66">
         <v>70</v>
       </c>
-      <c r="C621" s="54">
+      <c r="C630" s="54">
         <v>388.40000000000003</v>
       </c>
-      <c r="D621" s="56" t="s">
+      <c r="D630" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
-      <c r="A622" s="66">
+    <row r="631" spans="1:5">
+      <c r="A631" s="66">
         <v>80</v>
       </c>
-      <c r="B622" s="66">
+      <c r="B631" s="66">
         <v>80</v>
       </c>
-      <c r="C622" s="54">
+      <c r="C631" s="54">
         <v>431.6</v>
       </c>
-      <c r="D622" s="56" t="s">
+      <c r="D631" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
-      <c r="A623" s="66">
+    <row r="632" spans="1:5">
+      <c r="A632" s="66">
         <v>90</v>
       </c>
-      <c r="B623" s="66">
+      <c r="B632" s="66">
         <v>90</v>
       </c>
-      <c r="C623" s="54">
+      <c r="C632" s="54">
         <v>503.6</v>
       </c>
-      <c r="D623" s="56" t="s">
+      <c r="D632" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A624" s="57">
+    <row r="633" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A633" s="57">
         <v>100</v>
       </c>
-      <c r="B624" s="57">
+      <c r="B633" s="57">
         <v>100</v>
       </c>
-      <c r="C624" s="58">
+      <c r="C633" s="58">
         <v>532.40000000000009</v>
       </c>
-      <c r="D624" s="60" t="s">
+      <c r="D633" s="60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A625" s="61">
-        <v>132456</v>
-      </c>
-      <c r="B625" s="62"/>
-      <c r="C625" s="62"/>
-      <c r="D625" s="62"/>
-    </row>
-    <row r="626" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A626" s="6" t="s">
+    <row r="634" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A634" s="61">
+        <v>123456</v>
+      </c>
+      <c r="B634" s="62"/>
+      <c r="C634" s="62"/>
+      <c r="D634" s="62"/>
+    </row>
+    <row r="635" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A635" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B626" s="7"/>
-      <c r="C626" s="7"/>
-      <c r="D626" s="8"/>
-    </row>
-    <row r="627" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A627" s="46" t="s">
+      <c r="B635" s="7"/>
+      <c r="C635" s="7"/>
+      <c r="D635" s="8"/>
+    </row>
+    <row r="636" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A636" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B627" s="47"/>
-      <c r="C627" s="47"/>
-      <c r="D627" s="48"/>
-    </row>
-    <row r="628" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A628" s="42" t="s">
+      <c r="B636" s="47"/>
+      <c r="C636" s="47"/>
+      <c r="D636" s="48"/>
+    </row>
+    <row r="637" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A637" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B628" s="43" t="s">
+      <c r="B637" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C628" s="44" t="s">
+      <c r="C637" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D628" s="45" t="s">
+      <c r="D637" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E628" s="4" t="s">
+      <c r="E637" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
-      <c r="A629" s="51">
+    <row r="638" spans="1:5">
+      <c r="A638" s="51">
         <v>3.6</v>
       </c>
-      <c r="B629" s="50">
-        <f>E629*(9/5)+32</f>
+      <c r="B638" s="50">
+        <f>E638*(9/5)+32</f>
         <v>40.599999999999987</v>
       </c>
-      <c r="C629" s="52">
+      <c r="C638" s="52">
         <v>11.5</v>
       </c>
-      <c r="D629" s="46" t="s">
+      <c r="D638" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E629" s="5">
-        <f>((1/A629)*1000)-273</f>
+      <c r="E638" s="5">
+        <f>((1/A638)*1000)-273</f>
         <v>4.7777777777777715</v>
-      </c>
-    </row>
-    <row r="630" spans="1:5">
-      <c r="A630" s="53">
-        <v>3.4</v>
-      </c>
-      <c r="B630" s="54">
-        <f t="shared" ref="B630:B632" si="62">E630*(9/5)+32</f>
-        <v>70.011764705882371</v>
-      </c>
-      <c r="C630" s="55">
-        <v>23</v>
-      </c>
-      <c r="D630" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E630" s="5">
-        <f t="shared" ref="E630:E668" si="63">((1/A630)*1000)-273</f>
-        <v>21.117647058823536</v>
-      </c>
-    </row>
-    <row r="631" spans="1:5">
-      <c r="A631" s="53">
-        <v>3.2</v>
-      </c>
-      <c r="B631" s="54">
-        <f t="shared" si="62"/>
-        <v>103.10000000000001</v>
-      </c>
-      <c r="C631" s="55">
-        <v>47</v>
-      </c>
-      <c r="D631" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E631" s="5">
-        <f t="shared" si="63"/>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="632" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A632" s="57">
-        <v>2.76</v>
-      </c>
-      <c r="B632" s="58">
-        <f t="shared" si="62"/>
-        <v>192.77391304347833</v>
-      </c>
-      <c r="C632" s="59">
-        <v>235</v>
-      </c>
-      <c r="D632" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E632" s="5">
-        <f t="shared" si="63"/>
-        <v>89.318840579710184</v>
-      </c>
-    </row>
-    <row r="633" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A633" s="61">
-        <v>132456</v>
-      </c>
-      <c r="B633" s="62"/>
-      <c r="C633" s="62"/>
-      <c r="D633" s="62"/>
-      <c r="E633" s="5"/>
-    </row>
-    <row r="634" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A634" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B634" s="64"/>
-      <c r="C634" s="64"/>
-      <c r="D634" s="65"/>
-      <c r="E634" s="5"/>
-    </row>
-    <row r="635" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A635" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B635" s="47"/>
-      <c r="C635" s="47"/>
-      <c r="D635" s="48"/>
-      <c r="E635" s="5"/>
-    </row>
-    <row r="636" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A636" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B636" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C636" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D636" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E636" s="5"/>
-    </row>
-    <row r="637" spans="1:5">
-      <c r="A637" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="B637" s="50">
-        <f>E637*(9/5)+32</f>
-        <v>40.599999999999987</v>
-      </c>
-      <c r="C637" s="55">
-        <v>5.4</v>
-      </c>
-      <c r="D637" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E637" s="5">
-        <f t="shared" si="63"/>
-        <v>4.7777777777777715</v>
-      </c>
-    </row>
-    <row r="638" spans="1:5">
-      <c r="A638" s="66">
-        <v>3.3</v>
-      </c>
-      <c r="B638" s="54">
-        <f t="shared" ref="B638:B641" si="64">E638*(9/5)+32</f>
-        <v>86.054545454545519</v>
-      </c>
-      <c r="C638" s="55">
-        <v>14.5</v>
-      </c>
-      <c r="D638" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E638" s="5">
-        <f t="shared" si="63"/>
-        <v>30.03030303030306</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="53">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="B639" s="54">
-        <f t="shared" si="64"/>
-        <v>140.59999999999997</v>
+        <f t="shared" ref="B639:B641" si="70">E639*(9/5)+32</f>
+        <v>70.011764705882371</v>
       </c>
       <c r="C639" s="55">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D639" s="56" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E639" s="5">
-        <f t="shared" si="63"/>
-        <v>60.333333333333314</v>
+        <f t="shared" ref="E639:E677" si="71">((1/A639)*1000)-273</f>
+        <v>21.117647058823536</v>
       </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="53">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="B640" s="54">
-        <f t="shared" si="64"/>
-        <v>195.14545454545453</v>
+        <f t="shared" si="70"/>
+        <v>103.10000000000001</v>
       </c>
       <c r="C640" s="55">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D640" s="56" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E640" s="5">
-        <f t="shared" si="63"/>
-        <v>90.636363636363626</v>
+        <f t="shared" si="71"/>
+        <v>39.5</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A641" s="66">
-        <v>2.52</v>
+      <c r="A641" s="57">
+        <v>2.76</v>
       </c>
       <c r="B641" s="58">
-        <f t="shared" si="64"/>
-        <v>254.88571428571427</v>
-      </c>
-      <c r="C641" s="55">
-        <v>170</v>
-      </c>
-      <c r="D641" s="56" t="s">
-        <v>4</v>
+        <f t="shared" si="70"/>
+        <v>192.77391304347833</v>
+      </c>
+      <c r="C641" s="59">
+        <v>235</v>
+      </c>
+      <c r="D641" s="60" t="s">
+        <v>48</v>
       </c>
       <c r="E641" s="5">
-        <f t="shared" si="63"/>
-        <v>123.82539682539681</v>
+        <f t="shared" si="71"/>
+        <v>89.318840579710184</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="14.4" thickBot="1">
       <c r="A642" s="61">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B642" s="62"/>
       <c r="C642" s="62"/>
@@ -30259,7 +30297,7 @@
     </row>
     <row r="644" spans="1:5" ht="14.4" thickBot="1">
       <c r="A644" s="56" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B644" s="47"/>
       <c r="C644" s="47"/>
@@ -30283,102 +30321,102 @@
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="49">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="B646" s="50">
         <f>E646*(9/5)+32</f>
-        <v>117.5230769230769</v>
-      </c>
-      <c r="C646" s="52">
-        <v>1.4</v>
-      </c>
-      <c r="D646" s="46" t="s">
-        <v>68</v>
+        <v>40.599999999999987</v>
+      </c>
+      <c r="C646" s="55">
+        <v>5.4</v>
+      </c>
+      <c r="D646" s="56" t="s">
+        <v>4</v>
       </c>
       <c r="E646" s="5">
-        <f t="shared" si="63"/>
-        <v>47.512820512820497</v>
+        <f t="shared" si="71"/>
+        <v>4.7777777777777715</v>
       </c>
     </row>
     <row r="647" spans="1:5">
-      <c r="A647" s="53">
-        <v>3</v>
+      <c r="A647" s="66">
+        <v>3.3</v>
       </c>
       <c r="B647" s="54">
-        <f t="shared" ref="B647:B650" si="65">E647*(9/5)+32</f>
-        <v>140.59999999999997</v>
-      </c>
-      <c r="C647" s="67">
-        <v>2.4500000000000002</v>
+        <f t="shared" ref="B647:B650" si="72">E647*(9/5)+32</f>
+        <v>86.054545454545519</v>
+      </c>
+      <c r="C647" s="55">
+        <v>14.5</v>
       </c>
       <c r="D647" s="56" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E647" s="5">
-        <f t="shared" si="63"/>
-        <v>60.333333333333314</v>
+        <f t="shared" si="71"/>
+        <v>30.03030303030306</v>
       </c>
     </row>
     <row r="648" spans="1:5">
       <c r="A648" s="53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="B648" s="54">
-        <f t="shared" si="65"/>
-        <v>183.45714285714291</v>
+        <f t="shared" si="72"/>
+        <v>140.59999999999997</v>
       </c>
       <c r="C648" s="55">
-        <v>6.2</v>
+        <v>37</v>
       </c>
       <c r="D648" s="56" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E648" s="5">
-        <f t="shared" si="63"/>
-        <v>84.142857142857167</v>
+        <f t="shared" si="71"/>
+        <v>60.333333333333314</v>
       </c>
     </row>
     <row r="649" spans="1:5">
       <c r="A649" s="53">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="B649" s="54">
-        <f t="shared" si="65"/>
-        <v>232.90769230769226</v>
+        <f t="shared" si="72"/>
+        <v>195.14545454545453</v>
       </c>
       <c r="C649" s="55">
-        <v>15.5</v>
+        <v>83</v>
       </c>
       <c r="D649" s="56" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E649" s="5">
-        <f t="shared" si="63"/>
-        <v>111.61538461538458</v>
+        <f t="shared" si="71"/>
+        <v>90.636363636363626</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="14.4" thickBot="1">
       <c r="A650" s="66">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="B650" s="58">
-        <f t="shared" si="65"/>
-        <v>272.30731707317074</v>
+        <f t="shared" si="72"/>
+        <v>254.88571428571427</v>
       </c>
       <c r="C650" s="55">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="D650" s="56" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E650" s="5">
-        <f t="shared" si="63"/>
-        <v>133.5040650406504</v>
+        <f t="shared" si="71"/>
+        <v>123.82539682539681</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="14.4" thickBot="1">
       <c r="A651" s="61">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B651" s="62"/>
       <c r="C651" s="62"/>
@@ -30395,8 +30433,8 @@
       <c r="E652" s="5"/>
     </row>
     <row r="653" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A653" s="46" t="s">
-        <v>59</v>
+      <c r="A653" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="B653" s="47"/>
       <c r="C653" s="47"/>
@@ -30419,22 +30457,22 @@
       <c r="E654" s="5"/>
     </row>
     <row r="655" spans="1:5">
-      <c r="A655" s="51">
-        <v>3.1</v>
+      <c r="A655" s="49">
+        <v>3.12</v>
       </c>
       <c r="B655" s="50">
         <f>E655*(9/5)+32</f>
-        <v>121.24516129032256</v>
+        <v>117.5230769230769</v>
       </c>
       <c r="C655" s="52">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D655" s="46" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E655" s="5">
-        <f t="shared" si="63"/>
-        <v>49.580645161290306</v>
+        <f t="shared" si="71"/>
+        <v>47.512820512820497</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -30442,17 +30480,17 @@
         <v>3</v>
       </c>
       <c r="B656" s="54">
-        <f t="shared" ref="B656:B659" si="66">E656*(9/5)+32</f>
+        <f t="shared" ref="B656:B659" si="73">E656*(9/5)+32</f>
         <v>140.59999999999997</v>
       </c>
-      <c r="C656" s="55">
-        <v>2.1</v>
+      <c r="C656" s="67">
+        <v>2.4500000000000002</v>
       </c>
       <c r="D656" s="56" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E656" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>60.333333333333314</v>
       </c>
     </row>
@@ -30461,17 +30499,17 @@
         <v>2.8</v>
       </c>
       <c r="B657" s="54">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>183.45714285714291</v>
       </c>
       <c r="C657" s="55">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="D657" s="56" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E657" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>84.142857142857167</v>
       </c>
     </row>
@@ -30480,42 +30518,42 @@
         <v>2.6</v>
       </c>
       <c r="B658" s="54">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>232.90769230769226</v>
       </c>
       <c r="C658" s="55">
-        <v>12.8</v>
+        <v>15.5</v>
       </c>
       <c r="D658" s="56" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E658" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>111.61538461538458</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A659" s="68">
-        <v>2.4</v>
+      <c r="A659" s="66">
+        <v>2.46</v>
       </c>
       <c r="B659" s="58">
-        <f t="shared" si="66"/>
-        <v>290.60000000000002</v>
-      </c>
-      <c r="C659" s="59">
-        <v>32</v>
-      </c>
-      <c r="D659" s="60" t="s">
-        <v>59</v>
+        <f t="shared" si="73"/>
+        <v>272.30731707317074</v>
+      </c>
+      <c r="C659" s="55">
+        <v>29</v>
+      </c>
+      <c r="D659" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="E659" s="5">
-        <f t="shared" si="63"/>
-        <v>143.66666666666669</v>
+        <f t="shared" si="71"/>
+        <v>133.5040650406504</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="14.4" thickBot="1">
       <c r="A660" s="61">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B660" s="62"/>
       <c r="C660" s="62"/>
@@ -30532,8 +30570,8 @@
       <c r="E661" s="5"/>
     </row>
     <row r="662" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A662" s="9" t="s">
-        <v>69</v>
+      <c r="A662" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="B662" s="47"/>
       <c r="C662" s="47"/>
@@ -30556,123 +30594,126 @@
       <c r="E663" s="5"/>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="69">
-        <v>2.9</v>
+      <c r="A664" s="51">
+        <v>3.1</v>
       </c>
       <c r="B664" s="50">
         <f>E664*(9/5)+32</f>
-        <v>161.28965517241383</v>
-      </c>
-      <c r="C664" s="70">
-        <v>1</v>
-      </c>
-      <c r="D664" s="9" t="s">
-        <v>69</v>
+        <v>121.24516129032256</v>
+      </c>
+      <c r="C664" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="D664" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="E664" s="5">
-        <f t="shared" si="63"/>
-        <v>71.827586206896569</v>
+        <f t="shared" si="71"/>
+        <v>49.580645161290306</v>
       </c>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="71">
-        <v>2.75</v>
-      </c>
-      <c r="B665" s="15">
-        <f t="shared" ref="B665:B668" si="67">E665*(9/5)+32</f>
-        <v>195.14545454545453</v>
-      </c>
-      <c r="C665" s="72">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D665" s="16" t="s">
-        <v>69</v>
+      <c r="A665" s="53">
+        <v>3</v>
+      </c>
+      <c r="B665" s="54">
+        <f t="shared" ref="B665:B668" si="74">E665*(9/5)+32</f>
+        <v>140.59999999999997</v>
+      </c>
+      <c r="C665" s="55">
+        <v>2.1</v>
+      </c>
+      <c r="D665" s="56" t="s">
+        <v>59</v>
       </c>
       <c r="E665" s="5">
-        <f t="shared" si="63"/>
-        <v>90.636363636363626</v>
+        <f t="shared" si="71"/>
+        <v>60.333333333333314</v>
       </c>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="71">
+      <c r="A666" s="53">
+        <v>2.8</v>
+      </c>
+      <c r="B666" s="54">
+        <f t="shared" si="74"/>
+        <v>183.45714285714291</v>
+      </c>
+      <c r="C666" s="55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D666" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E666" s="5">
+        <f t="shared" si="71"/>
+        <v>84.142857142857167</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="53">
         <v>2.6</v>
       </c>
-      <c r="B666" s="15">
-        <f t="shared" si="67"/>
+      <c r="B667" s="54">
+        <f t="shared" si="74"/>
         <v>232.90769230769226</v>
       </c>
-      <c r="C666" s="72">
-        <v>5.2</v>
-      </c>
-      <c r="D666" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E666" s="5">
-        <f t="shared" si="63"/>
+      <c r="C667" s="55">
+        <v>12.8</v>
+      </c>
+      <c r="D667" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E667" s="5">
+        <f t="shared" si="71"/>
         <v>111.61538461538458</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
-      <c r="A667" s="71">
-        <v>2.5</v>
-      </c>
-      <c r="B667" s="15">
-        <f t="shared" si="67"/>
-        <v>260.60000000000002</v>
-      </c>
-      <c r="C667" s="72">
-        <v>9.4</v>
-      </c>
-      <c r="D667" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E667" s="5">
-        <f t="shared" si="63"/>
-        <v>127</v>
-      </c>
-    </row>
     <row r="668" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A668" s="73">
+      <c r="A668" s="68">
         <v>2.4</v>
       </c>
-      <c r="B668" s="17">
-        <f t="shared" si="67"/>
+      <c r="B668" s="58">
+        <f t="shared" si="74"/>
         <v>290.60000000000002</v>
       </c>
-      <c r="C668" s="74">
-        <v>16.5</v>
-      </c>
-      <c r="D668" s="18" t="s">
-        <v>69</v>
+      <c r="C668" s="59">
+        <v>32</v>
+      </c>
+      <c r="D668" s="60" t="s">
+        <v>59</v>
       </c>
       <c r="E668" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>143.66666666666669</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A669" s="35">
-        <v>132456</v>
-      </c>
-      <c r="B669" s="20"/>
-      <c r="C669" s="20"/>
-      <c r="D669" s="20"/>
+      <c r="A669" s="61">
+        <v>123456</v>
+      </c>
+      <c r="B669" s="62"/>
+      <c r="C669" s="62"/>
+      <c r="D669" s="62"/>
+      <c r="E669" s="5"/>
     </row>
     <row r="670" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A670" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B670" s="76"/>
-      <c r="C670" s="7"/>
-      <c r="D670" s="8"/>
+      <c r="A670" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B670" s="64"/>
+      <c r="C670" s="64"/>
+      <c r="D670" s="65"/>
+      <c r="E670" s="5"/>
     </row>
     <row r="671" spans="1:5" ht="14.4" thickBot="1">
       <c r="A671" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B671" s="77"/>
-      <c r="C671" s="10"/>
-      <c r="D671" s="38"/>
+        <v>69</v>
+      </c>
+      <c r="B671" s="47"/>
+      <c r="C671" s="47"/>
+      <c r="D671" s="48"/>
+      <c r="E671" s="5"/>
     </row>
     <row r="672" spans="1:5" ht="14.4" thickBot="1">
       <c r="A672" s="42" t="s">
@@ -30687,131 +30728,126 @@
       <c r="D672" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E672" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E672" s="5"/>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="69">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="B673" s="50">
         <f>E673*(9/5)+32</f>
-        <v>40.599999999999987</v>
-      </c>
-      <c r="C673" s="41">
-        <v>0.52</v>
+        <v>161.28965517241383</v>
+      </c>
+      <c r="C673" s="70">
+        <v>1</v>
       </c>
       <c r="D673" s="9" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E673" s="5">
-        <f>((1/A673)*1000)-273</f>
-        <v>4.7777777777777715</v>
+        <f t="shared" si="71"/>
+        <v>71.827586206896569</v>
       </c>
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="71">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="B674" s="15">
-        <f t="shared" ref="B674:B677" si="68">E674*(9/5)+32</f>
-        <v>70.011764705882371</v>
-      </c>
-      <c r="C674" s="39">
-        <v>1.2</v>
+        <f t="shared" ref="B674:B677" si="75">E674*(9/5)+32</f>
+        <v>195.14545454545453</v>
+      </c>
+      <c r="C674" s="72">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D674" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E674" s="5">
-        <f t="shared" ref="E674:E713" si="69">((1/A674)*1000)-273</f>
-        <v>21.117647058823536</v>
+        <f t="shared" si="71"/>
+        <v>90.636363636363626</v>
       </c>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="71">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="B675" s="15">
-        <f t="shared" si="68"/>
-        <v>103.10000000000001</v>
-      </c>
-      <c r="C675" s="39">
-        <v>2.75</v>
+        <f t="shared" si="75"/>
+        <v>232.90769230769226</v>
+      </c>
+      <c r="C675" s="72">
+        <v>5.2</v>
       </c>
       <c r="D675" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E675" s="5">
-        <f t="shared" si="69"/>
-        <v>39.5</v>
+        <f t="shared" si="71"/>
+        <v>111.61538461538458</v>
       </c>
     </row>
     <row r="676" spans="1:5">
       <c r="A676" s="71">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="B676" s="15">
-        <f t="shared" si="68"/>
-        <v>183.45714285714291</v>
-      </c>
-      <c r="C676" s="39">
-        <v>15</v>
+        <f t="shared" si="75"/>
+        <v>260.60000000000002</v>
+      </c>
+      <c r="C676" s="72">
+        <v>9.4</v>
       </c>
       <c r="D676" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E676" s="5">
-        <f t="shared" si="69"/>
-        <v>84.142857142857167</v>
+        <f t="shared" si="71"/>
+        <v>127</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A677" s="29">
-        <v>2.64</v>
+      <c r="A677" s="73">
+        <v>2.4</v>
       </c>
       <c r="B677" s="17">
-        <f t="shared" si="68"/>
-        <v>222.41818181818186</v>
-      </c>
-      <c r="C677" s="40">
-        <v>30</v>
+        <f t="shared" si="75"/>
+        <v>290.60000000000002</v>
+      </c>
+      <c r="C677" s="74">
+        <v>16.5</v>
       </c>
       <c r="D677" s="18" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E677" s="5">
-        <f t="shared" si="69"/>
-        <v>105.78787878787881</v>
+        <f t="shared" si="71"/>
+        <v>143.66666666666669</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="14.4" thickBot="1">
       <c r="A678" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="20"/>
       <c r="D678" s="20"/>
-      <c r="E678" s="5"/>
     </row>
     <row r="679" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A679" s="78" t="s">
+      <c r="A679" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B679" s="79"/>
-      <c r="C679" s="11"/>
-      <c r="D679" s="12"/>
-      <c r="E679" s="5"/>
+      <c r="B679" s="76"/>
+      <c r="C679" s="7"/>
+      <c r="D679" s="8"/>
     </row>
     <row r="680" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A680" s="16" t="s">
-        <v>13</v>
+      <c r="A680" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B680" s="77"/>
       <c r="C680" s="10"/>
       <c r="D680" s="38"/>
-      <c r="E680" s="5"/>
     </row>
     <row r="681" spans="1:5" ht="14.4" thickBot="1">
       <c r="A681" s="42" t="s">
@@ -30826,63 +30862,65 @@
       <c r="D681" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E681" s="5"/>
+      <c r="E681" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="28">
+      <c r="A682" s="69">
         <v>3.6</v>
       </c>
       <c r="B682" s="50">
         <f>E682*(9/5)+32</f>
         <v>40.599999999999987</v>
       </c>
-      <c r="C682" s="33">
-        <v>0.125</v>
-      </c>
-      <c r="D682" s="16" t="s">
-        <v>13</v>
+      <c r="C682" s="41">
+        <v>0.52</v>
+      </c>
+      <c r="D682" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E682" s="5">
-        <f t="shared" si="69"/>
+        <f>((1/A682)*1000)-273</f>
         <v>4.7777777777777715</v>
       </c>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="28">
-        <v>3.3</v>
+      <c r="A683" s="71">
+        <v>3.4</v>
       </c>
       <c r="B683" s="15">
-        <f t="shared" ref="B683:B686" si="70">E683*(9/5)+32</f>
-        <v>86.054545454545519</v>
+        <f t="shared" ref="B683:B686" si="76">E683*(9/5)+32</f>
+        <v>70.011764705882371</v>
       </c>
       <c r="C683" s="39">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="D683" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E683" s="5">
-        <f t="shared" si="69"/>
-        <v>30.03030303030306</v>
+        <f t="shared" ref="E683:E722" si="77">((1/A683)*1000)-273</f>
+        <v>21.117647058823536</v>
       </c>
     </row>
     <row r="684" spans="1:5">
       <c r="A684" s="71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="B684" s="15">
-        <f t="shared" si="70"/>
-        <v>140.59999999999997</v>
+        <f t="shared" si="76"/>
+        <v>103.10000000000001</v>
       </c>
       <c r="C684" s="39">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="D684" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E684" s="5">
-        <f t="shared" si="69"/>
-        <v>60.333333333333314</v>
+        <f t="shared" si="77"/>
+        <v>39.5</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -30890,42 +30928,42 @@
         <v>2.8</v>
       </c>
       <c r="B685" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>183.45714285714291</v>
       </c>
       <c r="C685" s="39">
-        <v>6.2</v>
+        <v>15</v>
       </c>
       <c r="D685" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E685" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>84.142857142857167</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A686" s="28">
-        <v>2.48</v>
+      <c r="A686" s="29">
+        <v>2.64</v>
       </c>
       <c r="B686" s="17">
-        <f t="shared" si="70"/>
-        <v>266.40645161290331</v>
-      </c>
-      <c r="C686" s="39">
+        <f t="shared" si="76"/>
+        <v>222.41818181818186</v>
+      </c>
+      <c r="C686" s="40">
         <v>30</v>
       </c>
-      <c r="D686" s="16" t="s">
-        <v>13</v>
+      <c r="D686" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="E686" s="5">
-        <f t="shared" si="69"/>
-        <v>130.22580645161293</v>
+        <f t="shared" si="77"/>
+        <v>105.78787878787881</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="14.4" thickBot="1">
       <c r="A687" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="20"/>
@@ -30942,8 +30980,8 @@
       <c r="E688" s="5"/>
     </row>
     <row r="689" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A689" s="9" t="s">
-        <v>10</v>
+      <c r="A689" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B689" s="77"/>
       <c r="C689" s="10"/>
@@ -30966,41 +31004,41 @@
       <c r="E690" s="5"/>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="27">
+      <c r="A691" s="28">
         <v>3.6</v>
       </c>
       <c r="B691" s="50">
         <f>E691*(9/5)+32</f>
         <v>40.599999999999987</v>
       </c>
-      <c r="C691" s="41">
-        <v>0.16</v>
-      </c>
-      <c r="D691" s="9" t="s">
-        <v>10</v>
+      <c r="C691" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="D691" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E691" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>4.7777777777777715</v>
       </c>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="71">
-        <v>3.2</v>
+      <c r="A692" s="28">
+        <v>3.3</v>
       </c>
       <c r="B692" s="15">
-        <f t="shared" ref="B692:B695" si="71">E692*(9/5)+32</f>
-        <v>103.10000000000001</v>
+        <f t="shared" ref="B692:B695" si="78">E692*(9/5)+32</f>
+        <v>86.054545454545519</v>
       </c>
       <c r="C692" s="39">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="D692" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E692" s="5">
-        <f t="shared" si="69"/>
-        <v>39.5</v>
+        <f t="shared" si="77"/>
+        <v>30.03030303030306</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -31008,61 +31046,61 @@
         <v>3</v>
       </c>
       <c r="B693" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>140.59999999999997</v>
       </c>
       <c r="C693" s="39">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="D693" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E693" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>60.333333333333314</v>
       </c>
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="71">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="B694" s="15">
-        <f t="shared" si="71"/>
-        <v>232.90769230769226</v>
+        <f t="shared" si="78"/>
+        <v>183.45714285714291</v>
       </c>
       <c r="C694" s="39">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="D694" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E694" s="5">
-        <f t="shared" si="69"/>
-        <v>111.61538461538458</v>
+        <f t="shared" si="77"/>
+        <v>84.142857142857167</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="14.4" thickBot="1">
       <c r="A695" s="28">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="B695" s="17">
-        <f t="shared" si="71"/>
-        <v>290.60000000000002</v>
+        <f t="shared" si="78"/>
+        <v>266.40645161290331</v>
       </c>
       <c r="C695" s="39">
-        <v>17.3</v>
+        <v>30</v>
       </c>
       <c r="D695" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E695" s="5">
-        <f t="shared" si="69"/>
-        <v>143.66666666666669</v>
+        <f t="shared" si="77"/>
+        <v>130.22580645161293</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="14.4" thickBot="1">
       <c r="A696" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="20"/>
@@ -31080,7 +31118,7 @@
     </row>
     <row r="698" spans="1:5" ht="14.4" thickBot="1">
       <c r="A698" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B698" s="77"/>
       <c r="C698" s="10"/>
@@ -31103,22 +31141,22 @@
       <c r="E699" s="5"/>
     </row>
     <row r="700" spans="1:5">
-      <c r="A700" s="69">
-        <v>3.48</v>
+      <c r="A700" s="27">
+        <v>3.6</v>
       </c>
       <c r="B700" s="50">
         <f>E700*(9/5)+32</f>
-        <v>57.841379310344834</v>
+        <v>40.599999999999987</v>
       </c>
       <c r="C700" s="41">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="D700" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E700" s="5">
-        <f t="shared" si="69"/>
-        <v>14.356321839080465</v>
+        <f t="shared" si="77"/>
+        <v>4.7777777777777715</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -31126,17 +31164,17 @@
         <v>3.2</v>
       </c>
       <c r="B701" s="15">
-        <f t="shared" ref="B701:B704" si="72">E701*(9/5)+32</f>
+        <f t="shared" ref="B701:B704" si="79">E701*(9/5)+32</f>
         <v>103.10000000000001</v>
       </c>
-      <c r="C701" s="33">
-        <v>0.40500000000000003</v>
+      <c r="C701" s="39">
+        <v>0.78</v>
       </c>
       <c r="D701" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E701" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>39.5</v>
       </c>
     </row>
@@ -31145,61 +31183,61 @@
         <v>3</v>
       </c>
       <c r="B702" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>140.59999999999997</v>
       </c>
-      <c r="C702" s="33">
-        <v>1.1000000000000001</v>
+      <c r="C702" s="39">
+        <v>1.67</v>
       </c>
       <c r="D702" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E702" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>60.333333333333314</v>
       </c>
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="71">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="B703" s="15">
-        <f t="shared" si="72"/>
-        <v>183.45714285714291</v>
+        <f t="shared" si="79"/>
+        <v>232.90769230769226</v>
       </c>
       <c r="C703" s="39">
-        <v>2.9</v>
+        <v>7.6</v>
       </c>
       <c r="D703" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E703" s="5">
-        <f t="shared" si="69"/>
-        <v>84.142857142857167</v>
+        <f t="shared" si="77"/>
+        <v>111.61538461538458</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A704" s="73">
+      <c r="A704" s="28">
         <v>2.4</v>
       </c>
       <c r="B704" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>290.60000000000002</v>
       </c>
-      <c r="C704" s="40">
-        <v>20.8</v>
-      </c>
-      <c r="D704" s="18" t="s">
-        <v>12</v>
+      <c r="C704" s="39">
+        <v>17.3</v>
+      </c>
+      <c r="D704" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E704" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>143.66666666666669</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="14.4" thickBot="1">
       <c r="A705" s="35">
-        <v>132456</v>
+        <v>123456</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="20"/>
@@ -31216,8 +31254,8 @@
       <c r="E706" s="5"/>
     </row>
     <row r="707" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A707" s="16" t="s">
-        <v>11</v>
+      <c r="A707" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B707" s="77"/>
       <c r="C707" s="10"/>
@@ -31240,22 +31278,22 @@
       <c r="E708" s="5"/>
     </row>
     <row r="709" spans="1:5">
-      <c r="A709" s="71">
-        <v>3.24</v>
+      <c r="A709" s="69">
+        <v>3.48</v>
       </c>
       <c r="B709" s="50">
         <f>E709*(9/5)+32</f>
-        <v>96.155555555555551</v>
-      </c>
-      <c r="C709" s="39">
+        <v>57.841379310344834</v>
+      </c>
+      <c r="C709" s="41">
         <v>0.1</v>
       </c>
-      <c r="D709" s="16" t="s">
-        <v>11</v>
+      <c r="D709" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E709" s="5">
-        <f t="shared" si="69"/>
-        <v>35.641975308641975</v>
+        <f t="shared" si="77"/>
+        <v>14.356321839080465</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -31263,17 +31301,17 @@
         <v>3.2</v>
       </c>
       <c r="B710" s="15">
-        <f t="shared" ref="B710:B713" si="73">E710*(9/5)+32</f>
+        <f t="shared" ref="B710:B713" si="80">E710*(9/5)+32</f>
         <v>103.10000000000001</v>
       </c>
-      <c r="C710" s="39">
-        <v>0.12</v>
+      <c r="C710" s="33">
+        <v>0.40500000000000003</v>
       </c>
       <c r="D710" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E710" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>39.5</v>
       </c>
     </row>
@@ -31282,17 +31320,17 @@
         <v>3</v>
       </c>
       <c r="B711" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>140.59999999999997</v>
       </c>
       <c r="C711" s="33">
-        <v>0.30499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D711" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E711" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>60.333333333333314</v>
       </c>
     </row>
@@ -31301,17 +31339,17 @@
         <v>2.8</v>
       </c>
       <c r="B712" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>183.45714285714291</v>
       </c>
       <c r="C712" s="39">
-        <v>0.79</v>
+        <v>2.9</v>
       </c>
       <c r="D712" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E712" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>84.142857142857167</v>
       </c>
     </row>
@@ -31320,38 +31358,175 @@
         <v>2.4</v>
       </c>
       <c r="B713" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>290.60000000000002</v>
       </c>
       <c r="C713" s="40">
+        <v>20.8</v>
+      </c>
+      <c r="D713" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E713" s="5">
+        <f t="shared" si="77"/>
+        <v>143.66666666666669</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A714" s="35">
+        <v>123456</v>
+      </c>
+      <c r="B714" s="20"/>
+      <c r="C714" s="20"/>
+      <c r="D714" s="20"/>
+      <c r="E714" s="5"/>
+    </row>
+    <row r="715" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A715" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B715" s="79"/>
+      <c r="C715" s="11"/>
+      <c r="D715" s="12"/>
+      <c r="E715" s="5"/>
+    </row>
+    <row r="716" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A716" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B716" s="77"/>
+      <c r="C716" s="10"/>
+      <c r="D716" s="38"/>
+      <c r="E716" s="5"/>
+    </row>
+    <row r="717" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A717" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B717" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C717" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D717" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E717" s="5"/>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="71">
+        <v>3.24</v>
+      </c>
+      <c r="B718" s="50">
+        <f>E718*(9/5)+32</f>
+        <v>96.155555555555551</v>
+      </c>
+      <c r="C718" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="D718" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E718" s="5">
+        <f t="shared" si="77"/>
+        <v>35.641975308641975</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="71">
+        <v>3.2</v>
+      </c>
+      <c r="B719" s="15">
+        <f t="shared" ref="B719:B722" si="81">E719*(9/5)+32</f>
+        <v>103.10000000000001</v>
+      </c>
+      <c r="C719" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="D719" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E719" s="5">
+        <f t="shared" si="77"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="71">
+        <v>3</v>
+      </c>
+      <c r="B720" s="15">
+        <f t="shared" si="81"/>
+        <v>140.59999999999997</v>
+      </c>
+      <c r="C720" s="33">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D720" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E720" s="5">
+        <f t="shared" si="77"/>
+        <v>60.333333333333314</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="71">
+        <v>2.8</v>
+      </c>
+      <c r="B721" s="15">
+        <f t="shared" si="81"/>
+        <v>183.45714285714291</v>
+      </c>
+      <c r="C721" s="39">
+        <v>0.79</v>
+      </c>
+      <c r="D721" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E721" s="5">
+        <f t="shared" si="77"/>
+        <v>84.142857142857167</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A722" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="B722" s="17">
+        <f t="shared" si="81"/>
+        <v>290.60000000000002</v>
+      </c>
+      <c r="C722" s="40">
         <v>5.25</v>
       </c>
-      <c r="D713" s="18" t="s">
+      <c r="D722" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E713" s="5">
-        <f t="shared" si="69"/>
+      <c r="E722" s="5">
+        <f t="shared" si="77"/>
         <v>143.66666666666669</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A470:D470"/>
+    <mergeCell ref="A487:D487"/>
+    <mergeCell ref="A495:D495"/>
+    <mergeCell ref="A503:D503"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A479:D479"/>
     <mergeCell ref="A298:D298"/>
     <mergeCell ref="A307:D307"/>
     <mergeCell ref="A316:D316"/>
     <mergeCell ref="A325:D325"/>
     <mergeCell ref="A334:D334"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A486:D486"/>
-    <mergeCell ref="A494:D494"/>
-    <mergeCell ref="A502:D502"/>
-    <mergeCell ref="A510:D510"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
